--- a/masks/code/TKIDModule_spreadsheet_20200406_AW.xlsx
+++ b/masks/code/TKIDModule_spreadsheet_20200406_AW.xlsx
@@ -852,8 +852,8 @@
     <col customWidth="1" max="1" min="1" width="17"/>
     <col customWidth="1" max="2" min="2" width="11"/>
     <col customWidth="1" max="3" min="3" width="44"/>
-    <col customWidth="1" max="4" min="4" width="11"/>
-    <col customWidth="1" max="5" min="5" width="11"/>
+    <col customWidth="1" max="4" min="4" width="8"/>
+    <col customWidth="1" max="5" min="5" width="8"/>
     <col customWidth="1" max="6" min="6" width="7"/>
     <col customWidth="1" max="7" min="7" width="7"/>
     <col customWidth="1" max="8" min="8" width="22"/>
@@ -2684,7 +2684,7 @@
         <v>39</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>-8.620001</v>
+        <v>-8.619999999999999</v>
       </c>
       <c r="E34" s="1" t="n">
         <v>-5.35</v>
@@ -2696,10 +2696,10 @@
         <v>2.4</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>-8.890001</v>
+        <v>-8.889999999999999</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>-8.350001000000001</v>
+        <v>-8.35</v>
       </c>
       <c r="J34" s="1" t="n">
         <v>-4.149999999999999</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="1" t="n">
-        <v>-8.620001</v>
+        <v>-8.619999999999999</v>
       </c>
       <c r="P34" s="1" t="n">
         <v>-5.35</v>
@@ -2829,7 +2829,7 @@
         <v>-4.85</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>-0.351</v>
+        <v>-0.35</v>
       </c>
       <c r="F36" s="1" t="n">
         <v>0.7</v>
@@ -2844,10 +2844,10 @@
         <v>-4.5</v>
       </c>
       <c r="J36" s="1" t="n">
-        <v>-0.151</v>
+        <v>-0.15</v>
       </c>
       <c r="K36" s="1" t="n">
-        <v>-0.5509999999999999</v>
+        <v>-0.55</v>
       </c>
       <c r="L36" s="1" t="n"/>
       <c r="M36" s="1" t="n">
@@ -2860,7 +2860,7 @@
         <v>-4.85</v>
       </c>
       <c r="P36" s="1" t="n">
-        <v>-0.351</v>
+        <v>-0.35</v>
       </c>
       <c r="Q36" s="1" t="n"/>
       <c r="R36" s="1" t="n"/>
@@ -6501,7 +6501,7 @@
         <v>-2.05</v>
       </c>
       <c r="E87" s="1" t="n">
-        <v>-0.375</v>
+        <v>-0.35</v>
       </c>
       <c r="F87" s="1" t="n">
         <v>0.7</v>
@@ -6516,10 +6516,10 @@
         <v>-1.7</v>
       </c>
       <c r="J87" s="1" t="n">
-        <v>-0.125</v>
+        <v>-0.09999999999999998</v>
       </c>
       <c r="K87" s="1" t="n">
-        <v>-0.625</v>
+        <v>-0.6</v>
       </c>
       <c r="L87" s="1" t="n"/>
       <c r="M87" s="1" t="n">
@@ -6532,7 +6532,7 @@
         <v>-3.519</v>
       </c>
       <c r="P87" s="1" t="n">
-        <v>-4.291</v>
+        <v>-4.266</v>
       </c>
       <c r="Q87" s="1" t="n"/>
       <c r="R87" s="1" t="n"/>
@@ -6573,7 +6573,7 @@
         <v>-2.05</v>
       </c>
       <c r="E88" s="1" t="n">
-        <v>-0.375</v>
+        <v>-0.35</v>
       </c>
       <c r="F88" s="1" t="n">
         <v>0.7</v>
@@ -6588,10 +6588,10 @@
         <v>-1.7</v>
       </c>
       <c r="J88" s="1" t="n">
-        <v>-0.125</v>
+        <v>-0.09999999999999998</v>
       </c>
       <c r="K88" s="1" t="n">
-        <v>-0.625</v>
+        <v>-0.6</v>
       </c>
       <c r="L88" s="1" t="n"/>
       <c r="M88" s="1" t="n">
@@ -6604,7 +6604,7 @@
         <v>-2.05</v>
       </c>
       <c r="P88" s="1" t="n">
-        <v>-0.375</v>
+        <v>-0.35</v>
       </c>
       <c r="Q88" s="1" t="n"/>
       <c r="R88" s="1" t="n"/>
@@ -6645,7 +6645,7 @@
         <v>-2.05</v>
       </c>
       <c r="E89" s="1" t="n">
-        <v>-0.375</v>
+        <v>-0.35</v>
       </c>
       <c r="F89" s="1" t="n">
         <v>0.7</v>
@@ -6660,10 +6660,10 @@
         <v>-1.7</v>
       </c>
       <c r="J89" s="1" t="n">
-        <v>-0.125</v>
+        <v>-0.09999999999999998</v>
       </c>
       <c r="K89" s="1" t="n">
-        <v>-0.625</v>
+        <v>-0.6</v>
       </c>
       <c r="L89" s="1" t="n"/>
       <c r="M89" s="1" t="n">
@@ -6676,7 +6676,7 @@
         <v>-3.519</v>
       </c>
       <c r="P89" s="1" t="n">
-        <v>3.541</v>
+        <v>3.566</v>
       </c>
       <c r="Q89" s="1" t="n"/>
       <c r="R89" s="1" t="n"/>
@@ -6717,7 +6717,7 @@
         <v>-2.05</v>
       </c>
       <c r="E90" s="1" t="n">
-        <v>-0.375</v>
+        <v>-0.35</v>
       </c>
       <c r="F90" s="1" t="n">
         <v>0.7</v>
@@ -6732,10 +6732,10 @@
         <v>-1.7</v>
       </c>
       <c r="J90" s="1" t="n">
-        <v>-0.125</v>
+        <v>-0.09999999999999998</v>
       </c>
       <c r="K90" s="1" t="n">
-        <v>-0.625</v>
+        <v>-0.6</v>
       </c>
       <c r="L90" s="1" t="n"/>
       <c r="M90" s="1" t="n">
@@ -6748,7 +6748,7 @@
         <v>-3.519</v>
       </c>
       <c r="P90" s="1" t="n">
-        <v>3.541</v>
+        <v>3.566</v>
       </c>
       <c r="Q90" s="1" t="n"/>
       <c r="R90" s="1" t="n"/>
@@ -6789,7 +6789,7 @@
         <v>-2.05</v>
       </c>
       <c r="E91" s="1" t="n">
-        <v>-0.375</v>
+        <v>-0.35</v>
       </c>
       <c r="F91" s="1" t="n">
         <v>0.7</v>
@@ -6804,10 +6804,10 @@
         <v>-1.7</v>
       </c>
       <c r="J91" s="1" t="n">
-        <v>-0.125</v>
+        <v>-0.09999999999999998</v>
       </c>
       <c r="K91" s="1" t="n">
-        <v>-0.625</v>
+        <v>-0.6</v>
       </c>
       <c r="L91" s="1" t="n"/>
       <c r="M91" s="1" t="n">
@@ -6820,7 +6820,7 @@
         <v>-2.05</v>
       </c>
       <c r="P91" s="1" t="n">
-        <v>-0.375</v>
+        <v>-0.35</v>
       </c>
       <c r="Q91" s="1" t="n"/>
       <c r="R91" s="1" t="n"/>
@@ -6861,7 +6861,7 @@
         <v>-2.05</v>
       </c>
       <c r="E92" s="1" t="n">
-        <v>-0.375</v>
+        <v>-0.35</v>
       </c>
       <c r="F92" s="1" t="n">
         <v>0.7</v>
@@ -6876,10 +6876,10 @@
         <v>-1.7</v>
       </c>
       <c r="J92" s="1" t="n">
-        <v>-0.125</v>
+        <v>-0.09999999999999998</v>
       </c>
       <c r="K92" s="1" t="n">
-        <v>-0.625</v>
+        <v>-0.6</v>
       </c>
       <c r="L92" s="1" t="n"/>
       <c r="M92" s="1" t="n">
@@ -6892,7 +6892,7 @@
         <v>-3.519</v>
       </c>
       <c r="P92" s="1" t="n">
-        <v>-4.293</v>
+        <v>-4.268</v>
       </c>
       <c r="Q92" s="1" t="n"/>
       <c r="R92" s="1" t="n"/>
@@ -6933,7 +6933,7 @@
         <v>-2.05</v>
       </c>
       <c r="E93" s="1" t="n">
-        <v>-0.375</v>
+        <v>-0.35</v>
       </c>
       <c r="F93" s="1" t="n">
         <v>0.7</v>
@@ -6948,10 +6948,10 @@
         <v>-1.7</v>
       </c>
       <c r="J93" s="1" t="n">
-        <v>-0.125</v>
+        <v>-0.09999999999999998</v>
       </c>
       <c r="K93" s="1" t="n">
-        <v>-0.625</v>
+        <v>-0.6</v>
       </c>
       <c r="L93" s="1" t="n"/>
       <c r="M93" s="1" t="n">
@@ -6964,7 +6964,7 @@
         <v>-3.519</v>
       </c>
       <c r="P93" s="1" t="n">
-        <v>-4.291</v>
+        <v>-4.266</v>
       </c>
       <c r="Q93" s="1" t="n"/>
       <c r="R93" s="1" t="n"/>
@@ -7005,7 +7005,7 @@
         <v>-2.05</v>
       </c>
       <c r="E94" s="1" t="n">
-        <v>-0.375</v>
+        <v>-0.35</v>
       </c>
       <c r="F94" s="1" t="n">
         <v>0.7</v>
@@ -7020,10 +7020,10 @@
         <v>-1.7</v>
       </c>
       <c r="J94" s="1" t="n">
-        <v>-0.125</v>
+        <v>-0.09999999999999998</v>
       </c>
       <c r="K94" s="1" t="n">
-        <v>-0.625</v>
+        <v>-0.6</v>
       </c>
       <c r="L94" s="1" t="n"/>
       <c r="M94" s="1" t="n">
@@ -7036,7 +7036,7 @@
         <v>-2.05</v>
       </c>
       <c r="P94" s="1" t="n">
-        <v>-0.375</v>
+        <v>-0.35</v>
       </c>
       <c r="Q94" s="1" t="n"/>
       <c r="R94" s="1" t="n"/>
@@ -7077,7 +7077,7 @@
         <v>-2.05</v>
       </c>
       <c r="E95" s="1" t="n">
-        <v>-0.375</v>
+        <v>-0.35</v>
       </c>
       <c r="F95" s="1" t="n">
         <v>0.7</v>
@@ -7092,10 +7092,10 @@
         <v>-1.7</v>
       </c>
       <c r="J95" s="1" t="n">
-        <v>-0.125</v>
+        <v>-0.09999999999999998</v>
       </c>
       <c r="K95" s="1" t="n">
-        <v>-0.625</v>
+        <v>-0.6</v>
       </c>
       <c r="L95" s="1" t="n"/>
       <c r="M95" s="1" t="n">
@@ -7108,7 +7108,7 @@
         <v>-3.519</v>
       </c>
       <c r="P95" s="1" t="n">
-        <v>-4.291</v>
+        <v>-4.266</v>
       </c>
       <c r="Q95" s="1" t="n"/>
       <c r="R95" s="1" t="n"/>
@@ -7149,7 +7149,7 @@
         <v>-2.8</v>
       </c>
       <c r="E96" s="1" t="n">
-        <v>-0.375</v>
+        <v>-0.35</v>
       </c>
       <c r="F96" s="1" t="n">
         <v>0.7</v>
@@ -7164,10 +7164,10 @@
         <v>-2.45</v>
       </c>
       <c r="J96" s="1" t="n">
-        <v>-0.125</v>
+        <v>-0.09999999999999998</v>
       </c>
       <c r="K96" s="1" t="n">
-        <v>-0.625</v>
+        <v>-0.6</v>
       </c>
       <c r="L96" s="1" t="n"/>
       <c r="M96" s="1" t="n">
@@ -7180,7 +7180,7 @@
         <v>-1.331</v>
       </c>
       <c r="P96" s="1" t="n">
-        <v>-4.291</v>
+        <v>-4.266</v>
       </c>
       <c r="Q96" s="1" t="n"/>
       <c r="R96" s="1" t="n"/>
@@ -7221,7 +7221,7 @@
         <v>-2.8</v>
       </c>
       <c r="E97" s="1" t="n">
-        <v>-0.375</v>
+        <v>-0.35</v>
       </c>
       <c r="F97" s="1" t="n">
         <v>0.7</v>
@@ -7236,10 +7236,10 @@
         <v>-2.45</v>
       </c>
       <c r="J97" s="1" t="n">
-        <v>-0.125</v>
+        <v>-0.09999999999999998</v>
       </c>
       <c r="K97" s="1" t="n">
-        <v>-0.625</v>
+        <v>-0.6</v>
       </c>
       <c r="L97" s="1" t="n"/>
       <c r="M97" s="1" t="n">
@@ -7252,7 +7252,7 @@
         <v>-1.331</v>
       </c>
       <c r="P97" s="1" t="n">
-        <v>3.541</v>
+        <v>3.566</v>
       </c>
       <c r="Q97" s="1" t="n"/>
       <c r="R97" s="1" t="n"/>
@@ -7293,7 +7293,7 @@
         <v>-2.8</v>
       </c>
       <c r="E98" s="1" t="n">
-        <v>-0.375</v>
+        <v>-0.35</v>
       </c>
       <c r="F98" s="1" t="n">
         <v>0.7</v>
@@ -7308,10 +7308,10 @@
         <v>-2.45</v>
       </c>
       <c r="J98" s="1" t="n">
-        <v>-0.125</v>
+        <v>-0.09999999999999998</v>
       </c>
       <c r="K98" s="1" t="n">
-        <v>-0.625</v>
+        <v>-0.6</v>
       </c>
       <c r="L98" s="1" t="n"/>
       <c r="M98" s="1" t="n">
@@ -7324,7 +7324,7 @@
         <v>-1.331</v>
       </c>
       <c r="P98" s="1" t="n">
-        <v>3.541</v>
+        <v>3.566</v>
       </c>
       <c r="Q98" s="1" t="n"/>
       <c r="R98" s="1" t="n"/>
@@ -7365,7 +7365,7 @@
         <v>-2.8</v>
       </c>
       <c r="E99" s="1" t="n">
-        <v>-0.375</v>
+        <v>-0.35</v>
       </c>
       <c r="F99" s="1" t="n">
         <v>0.7</v>
@@ -7380,10 +7380,10 @@
         <v>-2.45</v>
       </c>
       <c r="J99" s="1" t="n">
-        <v>-0.125</v>
+        <v>-0.09999999999999998</v>
       </c>
       <c r="K99" s="1" t="n">
-        <v>-0.625</v>
+        <v>-0.6</v>
       </c>
       <c r="L99" s="1" t="n"/>
       <c r="M99" s="1" t="n">
@@ -7396,7 +7396,7 @@
         <v>-1.331</v>
       </c>
       <c r="P99" s="1" t="n">
-        <v>3.541</v>
+        <v>3.566</v>
       </c>
       <c r="Q99" s="1" t="n"/>
       <c r="R99" s="1" t="n"/>
@@ -7437,7 +7437,7 @@
         <v>-2.8</v>
       </c>
       <c r="E100" s="1" t="n">
-        <v>-0.375</v>
+        <v>-0.35</v>
       </c>
       <c r="F100" s="1" t="n">
         <v>0.7</v>
@@ -7452,10 +7452,10 @@
         <v>-2.45</v>
       </c>
       <c r="J100" s="1" t="n">
-        <v>-0.125</v>
+        <v>-0.09999999999999998</v>
       </c>
       <c r="K100" s="1" t="n">
-        <v>-0.625</v>
+        <v>-0.6</v>
       </c>
       <c r="L100" s="1" t="n"/>
       <c r="M100" s="1" t="n">
@@ -7468,7 +7468,7 @@
         <v>-1.331</v>
       </c>
       <c r="P100" s="1" t="n">
-        <v>-4.291</v>
+        <v>-4.266</v>
       </c>
       <c r="Q100" s="1" t="n"/>
       <c r="R100" s="1" t="n"/>
@@ -7509,7 +7509,7 @@
         <v>-2.8</v>
       </c>
       <c r="E101" s="1" t="n">
-        <v>-0.375</v>
+        <v>-0.35</v>
       </c>
       <c r="F101" s="1" t="n">
         <v>0.7</v>
@@ -7524,10 +7524,10 @@
         <v>-2.45</v>
       </c>
       <c r="J101" s="1" t="n">
-        <v>-0.125</v>
+        <v>-0.09999999999999998</v>
       </c>
       <c r="K101" s="1" t="n">
-        <v>-0.625</v>
+        <v>-0.6</v>
       </c>
       <c r="L101" s="1" t="n"/>
       <c r="M101" s="1" t="n">
@@ -7540,7 +7540,7 @@
         <v>-1.331</v>
       </c>
       <c r="P101" s="1" t="n">
-        <v>-4.291</v>
+        <v>-4.266</v>
       </c>
       <c r="Q101" s="1" t="n"/>
       <c r="R101" s="1" t="n"/>
@@ -7581,7 +7581,7 @@
         <v>-0.25</v>
       </c>
       <c r="E102" s="1" t="n">
-        <v>-2.250999</v>
+        <v>-2.25</v>
       </c>
       <c r="F102" s="1" t="n">
         <v>0.7</v>
@@ -7596,10 +7596,10 @@
         <v>0.09999999999999998</v>
       </c>
       <c r="J102" s="1" t="n">
-        <v>-1.950999</v>
+        <v>-1.95</v>
       </c>
       <c r="K102" s="1" t="n">
-        <v>-2.550999</v>
+        <v>-2.55</v>
       </c>
       <c r="L102" s="1" t="n"/>
       <c r="M102" s="1" t="n">
@@ -7612,7 +7612,7 @@
         <v>2.451</v>
       </c>
       <c r="P102" s="1" t="n">
-        <v>-6.236999000000001</v>
+        <v>-6.236000000000001</v>
       </c>
       <c r="Q102" s="1" t="n"/>
       <c r="R102" s="1" t="n"/>
@@ -7653,7 +7653,7 @@
         <v>-0.25</v>
       </c>
       <c r="E103" s="1" t="n">
-        <v>-2.250999</v>
+        <v>-2.25</v>
       </c>
       <c r="F103" s="1" t="n">
         <v>0.7</v>
@@ -7668,10 +7668,10 @@
         <v>0.09999999999999998</v>
       </c>
       <c r="J103" s="1" t="n">
-        <v>-1.950999</v>
+        <v>-1.95</v>
       </c>
       <c r="K103" s="1" t="n">
-        <v>-2.550999</v>
+        <v>-2.55</v>
       </c>
       <c r="L103" s="1" t="n"/>
       <c r="M103" s="1" t="n">
@@ -7684,7 +7684,7 @@
         <v>-2.955</v>
       </c>
       <c r="P103" s="1" t="n">
-        <v>-6.236999000000001</v>
+        <v>-6.236000000000001</v>
       </c>
       <c r="Q103" s="1" t="n"/>
       <c r="R103" s="1" t="n"/>
@@ -7725,7 +7725,7 @@
         <v>-0.25</v>
       </c>
       <c r="E104" s="1" t="n">
-        <v>-2.250999</v>
+        <v>-2.25</v>
       </c>
       <c r="F104" s="1" t="n">
         <v>0.7</v>
@@ -7740,10 +7740,10 @@
         <v>0.09999999999999998</v>
       </c>
       <c r="J104" s="1" t="n">
-        <v>-1.950999</v>
+        <v>-1.95</v>
       </c>
       <c r="K104" s="1" t="n">
-        <v>-2.550999</v>
+        <v>-2.55</v>
       </c>
       <c r="L104" s="1" t="n"/>
       <c r="M104" s="1" t="n">
@@ -7756,7 +7756,7 @@
         <v>-0.25</v>
       </c>
       <c r="P104" s="1" t="n">
-        <v>-2.250999</v>
+        <v>-2.25</v>
       </c>
       <c r="Q104" s="1" t="n"/>
       <c r="R104" s="1" t="n"/>
@@ -7797,7 +7797,7 @@
         <v>-0.25</v>
       </c>
       <c r="E105" s="1" t="n">
-        <v>-2.250999</v>
+        <v>-2.25</v>
       </c>
       <c r="F105" s="1" t="n">
         <v>0.7</v>
@@ -7812,10 +7812,10 @@
         <v>0.09999999999999998</v>
       </c>
       <c r="J105" s="1" t="n">
-        <v>-1.950999</v>
+        <v>-1.95</v>
       </c>
       <c r="K105" s="1" t="n">
-        <v>-2.550999</v>
+        <v>-2.55</v>
       </c>
       <c r="L105" s="1" t="n"/>
       <c r="M105" s="1" t="n">
@@ -7828,7 +7828,7 @@
         <v>2.451</v>
       </c>
       <c r="P105" s="1" t="n">
-        <v>1.735001</v>
+        <v>1.736</v>
       </c>
       <c r="Q105" s="1" t="n"/>
       <c r="R105" s="1" t="n"/>
@@ -7869,7 +7869,7 @@
         <v>-0.25</v>
       </c>
       <c r="E106" s="1" t="n">
-        <v>-2.250999</v>
+        <v>-2.25</v>
       </c>
       <c r="F106" s="1" t="n">
         <v>0.7</v>
@@ -7884,10 +7884,10 @@
         <v>0.09999999999999998</v>
       </c>
       <c r="J106" s="1" t="n">
-        <v>-1.950999</v>
+        <v>-1.95</v>
       </c>
       <c r="K106" s="1" t="n">
-        <v>-2.550999</v>
+        <v>-2.55</v>
       </c>
       <c r="L106" s="1" t="n"/>
       <c r="M106" s="1" t="n">
@@ -7900,7 +7900,7 @@
         <v>-2.955</v>
       </c>
       <c r="P106" s="1" t="n">
-        <v>1.735001</v>
+        <v>1.736</v>
       </c>
       <c r="Q106" s="1" t="n"/>
       <c r="R106" s="1" t="n"/>
@@ -7941,7 +7941,7 @@
         <v>-0.25</v>
       </c>
       <c r="E107" s="1" t="n">
-        <v>-2.250999</v>
+        <v>-2.25</v>
       </c>
       <c r="F107" s="1" t="n">
         <v>0.7</v>
@@ -7956,10 +7956,10 @@
         <v>0.09999999999999998</v>
       </c>
       <c r="J107" s="1" t="n">
-        <v>-1.950999</v>
+        <v>-1.95</v>
       </c>
       <c r="K107" s="1" t="n">
-        <v>-2.550999</v>
+        <v>-2.55</v>
       </c>
       <c r="L107" s="1" t="n"/>
       <c r="M107" s="1" t="n">
@@ -7972,7 +7972,7 @@
         <v>2.451</v>
       </c>
       <c r="P107" s="1" t="n">
-        <v>1.735001</v>
+        <v>1.736</v>
       </c>
       <c r="Q107" s="1" t="n"/>
       <c r="R107" s="1" t="n"/>
@@ -8013,7 +8013,7 @@
         <v>-0.25</v>
       </c>
       <c r="E108" s="1" t="n">
-        <v>-2.250999</v>
+        <v>-2.25</v>
       </c>
       <c r="F108" s="1" t="n">
         <v>0.7</v>
@@ -8028,10 +8028,10 @@
         <v>0.09999999999999998</v>
       </c>
       <c r="J108" s="1" t="n">
-        <v>-1.950999</v>
+        <v>-1.95</v>
       </c>
       <c r="K108" s="1" t="n">
-        <v>-2.550999</v>
+        <v>-2.55</v>
       </c>
       <c r="L108" s="1" t="n"/>
       <c r="M108" s="1" t="n">
@@ -8044,7 +8044,7 @@
         <v>-2.955</v>
       </c>
       <c r="P108" s="1" t="n">
-        <v>1.735001</v>
+        <v>1.736</v>
       </c>
       <c r="Q108" s="1" t="n"/>
       <c r="R108" s="1" t="n"/>
@@ -8085,7 +8085,7 @@
         <v>-0.25</v>
       </c>
       <c r="E109" s="1" t="n">
-        <v>-2.250999</v>
+        <v>-2.25</v>
       </c>
       <c r="F109" s="1" t="n">
         <v>0.7</v>
@@ -8100,10 +8100,10 @@
         <v>0.09999999999999998</v>
       </c>
       <c r="J109" s="1" t="n">
-        <v>-1.950999</v>
+        <v>-1.95</v>
       </c>
       <c r="K109" s="1" t="n">
-        <v>-2.550999</v>
+        <v>-2.55</v>
       </c>
       <c r="L109" s="1" t="n"/>
       <c r="M109" s="1" t="n">
@@ -8116,7 +8116,7 @@
         <v>-0.25</v>
       </c>
       <c r="P109" s="1" t="n">
-        <v>-2.250999</v>
+        <v>-2.25</v>
       </c>
       <c r="Q109" s="1" t="n"/>
       <c r="R109" s="1" t="n"/>
@@ -8157,7 +8157,7 @@
         <v>-0.25</v>
       </c>
       <c r="E110" s="1" t="n">
-        <v>-2.250999</v>
+        <v>-2.25</v>
       </c>
       <c r="F110" s="1" t="n">
         <v>0.7</v>
@@ -8172,10 +8172,10 @@
         <v>0.09999999999999998</v>
       </c>
       <c r="J110" s="1" t="n">
-        <v>-1.950999</v>
+        <v>-1.95</v>
       </c>
       <c r="K110" s="1" t="n">
-        <v>-2.550999</v>
+        <v>-2.55</v>
       </c>
       <c r="L110" s="1" t="n"/>
       <c r="M110" s="1" t="n">
@@ -8188,7 +8188,7 @@
         <v>-2.955</v>
       </c>
       <c r="P110" s="1" t="n">
-        <v>-6.238999</v>
+        <v>-6.238</v>
       </c>
       <c r="Q110" s="1" t="n"/>
       <c r="R110" s="1" t="n"/>
@@ -8229,7 +8229,7 @@
         <v>-0.25</v>
       </c>
       <c r="E111" s="1" t="n">
-        <v>-2.250999</v>
+        <v>-2.25</v>
       </c>
       <c r="F111" s="1" t="n">
         <v>0.7</v>
@@ -8244,10 +8244,10 @@
         <v>0.09999999999999998</v>
       </c>
       <c r="J111" s="1" t="n">
-        <v>-1.950999</v>
+        <v>-1.95</v>
       </c>
       <c r="K111" s="1" t="n">
-        <v>-2.550999</v>
+        <v>-2.55</v>
       </c>
       <c r="L111" s="1" t="n"/>
       <c r="M111" s="1" t="n">
@@ -8260,7 +8260,7 @@
         <v>2.451</v>
       </c>
       <c r="P111" s="1" t="n">
-        <v>1.735001</v>
+        <v>1.736</v>
       </c>
       <c r="Q111" s="1" t="n"/>
       <c r="R111" s="1" t="n"/>
@@ -8301,7 +8301,7 @@
         <v>-0.25</v>
       </c>
       <c r="E112" s="1" t="n">
-        <v>-2.250999</v>
+        <v>-2.25</v>
       </c>
       <c r="F112" s="1" t="n">
         <v>0.7</v>
@@ -8316,10 +8316,10 @@
         <v>0.09999999999999998</v>
       </c>
       <c r="J112" s="1" t="n">
-        <v>-1.950999</v>
+        <v>-1.95</v>
       </c>
       <c r="K112" s="1" t="n">
-        <v>-2.550999</v>
+        <v>-2.55</v>
       </c>
       <c r="L112" s="1" t="n"/>
       <c r="M112" s="1" t="n">
@@ -8332,7 +8332,7 @@
         <v>2.451</v>
       </c>
       <c r="P112" s="1" t="n">
-        <v>-6.236999000000001</v>
+        <v>-6.236000000000001</v>
       </c>
       <c r="Q112" s="1" t="n"/>
       <c r="R112" s="1" t="n"/>
@@ -8373,7 +8373,7 @@
         <v>-0.25</v>
       </c>
       <c r="E113" s="1" t="n">
-        <v>-2.250999</v>
+        <v>-2.25</v>
       </c>
       <c r="F113" s="1" t="n">
         <v>0.7</v>
@@ -8388,10 +8388,10 @@
         <v>0.09999999999999998</v>
       </c>
       <c r="J113" s="1" t="n">
-        <v>-1.950999</v>
+        <v>-1.95</v>
       </c>
       <c r="K113" s="1" t="n">
-        <v>-2.550999</v>
+        <v>-2.55</v>
       </c>
       <c r="L113" s="1" t="n"/>
       <c r="M113" s="1" t="n">
@@ -8404,7 +8404,7 @@
         <v>-2.955</v>
       </c>
       <c r="P113" s="1" t="n">
-        <v>-6.236999000000001</v>
+        <v>-6.236000000000001</v>
       </c>
       <c r="Q113" s="1" t="n"/>
       <c r="R113" s="1" t="n"/>
@@ -8445,7 +8445,7 @@
         <v>-0.25</v>
       </c>
       <c r="E114" s="1" t="n">
-        <v>-2.250999</v>
+        <v>-2.25</v>
       </c>
       <c r="F114" s="1" t="n">
         <v>0.7</v>
@@ -8460,10 +8460,10 @@
         <v>0.09999999999999998</v>
       </c>
       <c r="J114" s="1" t="n">
-        <v>-1.950999</v>
+        <v>-1.95</v>
       </c>
       <c r="K114" s="1" t="n">
-        <v>-2.550999</v>
+        <v>-2.55</v>
       </c>
       <c r="L114" s="1" t="n"/>
       <c r="M114" s="1" t="n">
@@ -8476,7 +8476,7 @@
         <v>-0.25</v>
       </c>
       <c r="P114" s="1" t="n">
-        <v>-2.250999</v>
+        <v>-2.25</v>
       </c>
       <c r="Q114" s="1" t="n"/>
       <c r="R114" s="1" t="n"/>
@@ -8517,7 +8517,7 @@
         <v>-0.25</v>
       </c>
       <c r="E115" s="1" t="n">
-        <v>-2.250999</v>
+        <v>-2.25</v>
       </c>
       <c r="F115" s="1" t="n">
         <v>0.7</v>
@@ -8532,10 +8532,10 @@
         <v>0.09999999999999998</v>
       </c>
       <c r="J115" s="1" t="n">
-        <v>-1.950999</v>
+        <v>-1.95</v>
       </c>
       <c r="K115" s="1" t="n">
-        <v>-2.550999</v>
+        <v>-2.55</v>
       </c>
       <c r="L115" s="1" t="n"/>
       <c r="M115" s="1" t="n">
@@ -8548,7 +8548,7 @@
         <v>2.451</v>
       </c>
       <c r="P115" s="1" t="n">
-        <v>-6.236999000000001</v>
+        <v>-6.236000000000001</v>
       </c>
       <c r="Q115" s="1" t="n"/>
       <c r="R115" s="1" t="n"/>
@@ -8589,7 +8589,7 @@
         <v>-0.25</v>
       </c>
       <c r="E116" s="1" t="n">
-        <v>-2.250999</v>
+        <v>-2.25</v>
       </c>
       <c r="F116" s="1" t="n">
         <v>0.7</v>
@@ -8604,10 +8604,10 @@
         <v>0.09999999999999998</v>
       </c>
       <c r="J116" s="1" t="n">
-        <v>-1.950999</v>
+        <v>-1.95</v>
       </c>
       <c r="K116" s="1" t="n">
-        <v>-2.550999</v>
+        <v>-2.55</v>
       </c>
       <c r="L116" s="1" t="n"/>
       <c r="M116" s="1" t="n">
@@ -8620,7 +8620,7 @@
         <v>-2.955</v>
       </c>
       <c r="P116" s="1" t="n">
-        <v>-6.236999000000001</v>
+        <v>-6.236000000000001</v>
       </c>
       <c r="Q116" s="1" t="n"/>
       <c r="R116" s="1" t="n"/>
@@ -8661,7 +8661,7 @@
         <v>-1.2</v>
       </c>
       <c r="E117" s="1" t="n">
-        <v>-0.35</v>
+        <v>-0.325</v>
       </c>
       <c r="F117" s="1" t="n">
         <v>0.9</v>
@@ -8676,10 +8676,10 @@
         <v>-0.75</v>
       </c>
       <c r="J117" s="1" t="n">
-        <v>-0.07499999999999996</v>
+        <v>-0.04999999999999999</v>
       </c>
       <c r="K117" s="1" t="n">
-        <v>-0.625</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="L117" s="1" t="n"/>
       <c r="M117" s="1" t="n">
@@ -8692,7 +8692,7 @@
         <v>-4.61</v>
       </c>
       <c r="P117" s="1" t="n">
-        <v>-4.188</v>
+        <v>-4.163</v>
       </c>
       <c r="Q117" s="1" t="n"/>
       <c r="R117" s="1" t="n"/>
@@ -8733,7 +8733,7 @@
         <v>-1.2</v>
       </c>
       <c r="E118" s="1" t="n">
-        <v>-0.35</v>
+        <v>-0.325</v>
       </c>
       <c r="F118" s="1" t="n">
         <v>0.9</v>
@@ -8748,10 +8748,10 @@
         <v>-0.75</v>
       </c>
       <c r="J118" s="1" t="n">
-        <v>-0.07499999999999996</v>
+        <v>-0.04999999999999999</v>
       </c>
       <c r="K118" s="1" t="n">
-        <v>-0.625</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="L118" s="1" t="n"/>
       <c r="M118" s="1" t="n">
@@ -8764,7 +8764,7 @@
         <v>2.21</v>
       </c>
       <c r="P118" s="1" t="n">
-        <v>-4.188</v>
+        <v>-4.163</v>
       </c>
       <c r="Q118" s="1" t="n"/>
       <c r="R118" s="1" t="n"/>
@@ -8805,7 +8805,7 @@
         <v>-1.2</v>
       </c>
       <c r="E119" s="1" t="n">
-        <v>-0.35</v>
+        <v>-0.325</v>
       </c>
       <c r="F119" s="1" t="n">
         <v>0.9</v>
@@ -8820,10 +8820,10 @@
         <v>-0.75</v>
       </c>
       <c r="J119" s="1" t="n">
-        <v>-0.07499999999999996</v>
+        <v>-0.04999999999999999</v>
       </c>
       <c r="K119" s="1" t="n">
-        <v>-0.625</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="L119" s="1" t="n"/>
       <c r="M119" s="1" t="n">
@@ -8836,7 +8836,7 @@
         <v>2.21</v>
       </c>
       <c r="P119" s="1" t="n">
-        <v>3.488</v>
+        <v>3.513</v>
       </c>
       <c r="Q119" s="1" t="n"/>
       <c r="R119" s="1" t="n"/>
@@ -8877,7 +8877,7 @@
         <v>-1.2</v>
       </c>
       <c r="E120" s="1" t="n">
-        <v>-0.35</v>
+        <v>-0.325</v>
       </c>
       <c r="F120" s="1" t="n">
         <v>0.9</v>
@@ -8892,10 +8892,10 @@
         <v>-0.75</v>
       </c>
       <c r="J120" s="1" t="n">
-        <v>-0.07499999999999996</v>
+        <v>-0.04999999999999999</v>
       </c>
       <c r="K120" s="1" t="n">
-        <v>-0.625</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="L120" s="1" t="n"/>
       <c r="M120" s="1" t="n">
@@ -8908,7 +8908,7 @@
         <v>-4.61</v>
       </c>
       <c r="P120" s="1" t="n">
-        <v>3.488</v>
+        <v>3.513</v>
       </c>
       <c r="Q120" s="1" t="n"/>
       <c r="R120" s="1" t="n"/>
@@ -8949,7 +8949,7 @@
         <v>-1.2</v>
       </c>
       <c r="E121" s="1" t="n">
-        <v>-0.35</v>
+        <v>-0.325</v>
       </c>
       <c r="F121" s="1" t="n">
         <v>0.9</v>
@@ -8964,10 +8964,10 @@
         <v>-0.75</v>
       </c>
       <c r="J121" s="1" t="n">
-        <v>-0.07499999999999996</v>
+        <v>-0.04999999999999999</v>
       </c>
       <c r="K121" s="1" t="n">
-        <v>-0.625</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="L121" s="1" t="n"/>
       <c r="M121" s="1" t="n">
@@ -8980,7 +8980,7 @@
         <v>2.21</v>
       </c>
       <c r="P121" s="1" t="n">
-        <v>3.488</v>
+        <v>3.513</v>
       </c>
       <c r="Q121" s="1" t="n"/>
       <c r="R121" s="1" t="n"/>
@@ -9021,7 +9021,7 @@
         <v>-1.2</v>
       </c>
       <c r="E122" s="1" t="n">
-        <v>-0.35</v>
+        <v>-0.325</v>
       </c>
       <c r="F122" s="1" t="n">
         <v>0.9</v>
@@ -9036,10 +9036,10 @@
         <v>-0.75</v>
       </c>
       <c r="J122" s="1" t="n">
-        <v>-0.07499999999999996</v>
+        <v>-0.04999999999999999</v>
       </c>
       <c r="K122" s="1" t="n">
-        <v>-0.625</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="L122" s="1" t="n"/>
       <c r="M122" s="1" t="n">
@@ -9052,7 +9052,7 @@
         <v>-4.61</v>
       </c>
       <c r="P122" s="1" t="n">
-        <v>3.488</v>
+        <v>3.513</v>
       </c>
       <c r="Q122" s="1" t="n"/>
       <c r="R122" s="1" t="n"/>
@@ -9093,7 +9093,7 @@
         <v>-1.2</v>
       </c>
       <c r="E123" s="1" t="n">
-        <v>-0.35</v>
+        <v>-0.325</v>
       </c>
       <c r="F123" s="1" t="n">
         <v>0.9</v>
@@ -9108,10 +9108,10 @@
         <v>-0.75</v>
       </c>
       <c r="J123" s="1" t="n">
-        <v>-0.07499999999999996</v>
+        <v>-0.04999999999999999</v>
       </c>
       <c r="K123" s="1" t="n">
-        <v>-0.625</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="L123" s="1" t="n"/>
       <c r="M123" s="1" t="n">
@@ -9124,7 +9124,7 @@
         <v>-4.61</v>
       </c>
       <c r="P123" s="1" t="n">
-        <v>-4.188</v>
+        <v>-4.163</v>
       </c>
       <c r="Q123" s="1" t="n"/>
       <c r="R123" s="1" t="n"/>
@@ -9165,7 +9165,7 @@
         <v>-1.2</v>
       </c>
       <c r="E124" s="1" t="n">
-        <v>-0.35</v>
+        <v>-0.325</v>
       </c>
       <c r="F124" s="1" t="n">
         <v>0.9</v>
@@ -9180,10 +9180,10 @@
         <v>-0.75</v>
       </c>
       <c r="J124" s="1" t="n">
-        <v>-0.07499999999999996</v>
+        <v>-0.04999999999999999</v>
       </c>
       <c r="K124" s="1" t="n">
-        <v>-0.625</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="L124" s="1" t="n"/>
       <c r="M124" s="1" t="n">
@@ -9196,7 +9196,7 @@
         <v>2.21</v>
       </c>
       <c r="P124" s="1" t="n">
-        <v>-4.188</v>
+        <v>-4.163</v>
       </c>
       <c r="Q124" s="1" t="n"/>
       <c r="R124" s="1" t="n"/>
@@ -9237,7 +9237,7 @@
         <v>-1.2</v>
       </c>
       <c r="E125" s="1" t="n">
-        <v>-0.35</v>
+        <v>-0.325</v>
       </c>
       <c r="F125" s="1" t="n">
         <v>0.9</v>
@@ -9252,10 +9252,10 @@
         <v>-0.75</v>
       </c>
       <c r="J125" s="1" t="n">
-        <v>-0.07499999999999996</v>
+        <v>-0.04999999999999999</v>
       </c>
       <c r="K125" s="1" t="n">
-        <v>-0.625</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="L125" s="1" t="n"/>
       <c r="M125" s="1" t="n">
@@ -9268,7 +9268,7 @@
         <v>-4.61</v>
       </c>
       <c r="P125" s="1" t="n">
-        <v>-4.188</v>
+        <v>-4.163</v>
       </c>
       <c r="Q125" s="1" t="n"/>
       <c r="R125" s="1" t="n"/>
@@ -9309,7 +9309,7 @@
         <v>-1.2</v>
       </c>
       <c r="E126" s="1" t="n">
-        <v>-0.35</v>
+        <v>-0.325</v>
       </c>
       <c r="F126" s="1" t="n">
         <v>0.9</v>
@@ -9324,10 +9324,10 @@
         <v>-0.75</v>
       </c>
       <c r="J126" s="1" t="n">
-        <v>-0.07499999999999996</v>
+        <v>-0.04999999999999999</v>
       </c>
       <c r="K126" s="1" t="n">
-        <v>-0.625</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="L126" s="1" t="n"/>
       <c r="M126" s="1" t="n">
@@ -9340,7 +9340,7 @@
         <v>2.21</v>
       </c>
       <c r="P126" s="1" t="n">
-        <v>-4.188</v>
+        <v>-4.163</v>
       </c>
       <c r="Q126" s="1" t="n"/>
       <c r="R126" s="1" t="n"/>
@@ -9453,7 +9453,7 @@
         <v>-10.2</v>
       </c>
       <c r="E128" s="1" t="n">
-        <v>-6.450001</v>
+        <v>-6.45</v>
       </c>
       <c r="F128" s="1" t="n">
         <v>1</v>
@@ -9468,10 +9468,10 @@
         <v>-9.699999999999999</v>
       </c>
       <c r="J128" s="1" t="n">
-        <v>-5.250001</v>
+        <v>-5.25</v>
       </c>
       <c r="K128" s="1" t="n">
-        <v>-7.650001</v>
+        <v>-7.65</v>
       </c>
       <c r="L128" s="1" t="n"/>
       <c r="M128" s="1" t="n">
@@ -9484,7 +9484,7 @@
         <v>-10.2</v>
       </c>
       <c r="P128" s="1" t="n">
-        <v>-6.450001</v>
+        <v>-6.45</v>
       </c>
       <c r="Q128" s="1" t="n"/>
       <c r="R128" s="1" t="n"/>
@@ -9525,7 +9525,7 @@
         <v>-10.2</v>
       </c>
       <c r="E129" s="1" t="n">
-        <v>-6.450001</v>
+        <v>-6.45</v>
       </c>
       <c r="F129" s="1" t="n">
         <v>1</v>
@@ -9540,10 +9540,10 @@
         <v>-9.699999999999999</v>
       </c>
       <c r="J129" s="1" t="n">
-        <v>-5.250001</v>
+        <v>-5.25</v>
       </c>
       <c r="K129" s="1" t="n">
-        <v>-7.650001</v>
+        <v>-7.65</v>
       </c>
       <c r="L129" s="1" t="n"/>
       <c r="M129" s="1" t="n">
@@ -9556,7 +9556,7 @@
         <v>-10.2</v>
       </c>
       <c r="P129" s="1" t="n">
-        <v>-6.450001</v>
+        <v>-6.45</v>
       </c>
       <c r="Q129" s="1" t="n"/>
       <c r="R129" s="1" t="n"/>
@@ -9594,7 +9594,7 @@
         <v>59</v>
       </c>
       <c r="D130" s="1" t="n">
-        <v>-9.659998999999999</v>
+        <v>-9.659000000000001</v>
       </c>
       <c r="E130" s="1" t="n">
         <v>-9.175000000000001</v>
@@ -9606,10 +9606,10 @@
         <v>2.95</v>
       </c>
       <c r="H130" s="1" t="n">
-        <v>-10.379999</v>
+        <v>-10.379</v>
       </c>
       <c r="I130" s="1" t="n">
-        <v>-8.939998999999998</v>
+        <v>-8.939</v>
       </c>
       <c r="J130" s="1" t="n">
         <v>-7.700000000000001</v>
@@ -9625,7 +9625,7 @@
         <v>0</v>
       </c>
       <c r="O130" s="1" t="n">
-        <v>-9.659998999999999</v>
+        <v>-9.659000000000001</v>
       </c>
       <c r="P130" s="1" t="n">
         <v>-9.175000000000001</v>
@@ -10173,7 +10173,7 @@
         <v>-0.85</v>
       </c>
       <c r="E138" s="1" t="n">
-        <v>-2.241</v>
+        <v>-2.24</v>
       </c>
       <c r="F138" s="1" t="n">
         <v>0.4</v>
@@ -10188,10 +10188,10 @@
         <v>-0.6499999999999999</v>
       </c>
       <c r="J138" s="1" t="n">
-        <v>-2.041</v>
+        <v>-2.04</v>
       </c>
       <c r="K138" s="1" t="n">
-        <v>-2.441</v>
+        <v>-2.44</v>
       </c>
       <c r="L138" s="1" t="n"/>
       <c r="M138" s="1" t="n">
@@ -10204,7 +10204,7 @@
         <v>-2.788</v>
       </c>
       <c r="P138" s="1" t="n">
-        <v>-6.166</v>
+        <v>-6.165</v>
       </c>
       <c r="Q138" s="1" t="n"/>
       <c r="R138" s="1" t="n"/>
@@ -10245,7 +10245,7 @@
         <v>-0.85</v>
       </c>
       <c r="E139" s="1" t="n">
-        <v>-2.241</v>
+        <v>-2.24</v>
       </c>
       <c r="F139" s="1" t="n">
         <v>0.4</v>
@@ -10260,10 +10260,10 @@
         <v>-0.6499999999999999</v>
       </c>
       <c r="J139" s="1" t="n">
-        <v>-2.041</v>
+        <v>-2.04</v>
       </c>
       <c r="K139" s="1" t="n">
-        <v>-2.441</v>
+        <v>-2.44</v>
       </c>
       <c r="L139" s="1" t="n"/>
       <c r="M139" s="1" t="n">
@@ -10276,7 +10276,7 @@
         <v>1.088</v>
       </c>
       <c r="P139" s="1" t="n">
-        <v>-6.166</v>
+        <v>-6.165</v>
       </c>
       <c r="Q139" s="1" t="n"/>
       <c r="R139" s="1" t="n"/>
@@ -10317,7 +10317,7 @@
         <v>-0.85</v>
       </c>
       <c r="E140" s="1" t="n">
-        <v>-2.241</v>
+        <v>-2.24</v>
       </c>
       <c r="F140" s="1" t="n">
         <v>0.4</v>
@@ -10332,10 +10332,10 @@
         <v>-0.6499999999999999</v>
       </c>
       <c r="J140" s="1" t="n">
-        <v>-2.041</v>
+        <v>-2.04</v>
       </c>
       <c r="K140" s="1" t="n">
-        <v>-2.441</v>
+        <v>-2.44</v>
       </c>
       <c r="L140" s="1" t="n"/>
       <c r="M140" s="1" t="n">
@@ -10348,7 +10348,7 @@
         <v>-0.85</v>
       </c>
       <c r="P140" s="1" t="n">
-        <v>-2.241</v>
+        <v>-2.24</v>
       </c>
       <c r="Q140" s="1" t="n"/>
       <c r="R140" s="1" t="n"/>
@@ -10389,7 +10389,7 @@
         <v>-0.85</v>
       </c>
       <c r="E141" s="1" t="n">
-        <v>-2.241</v>
+        <v>-2.24</v>
       </c>
       <c r="F141" s="1" t="n">
         <v>0.4</v>
@@ -10404,10 +10404,10 @@
         <v>-0.6499999999999999</v>
       </c>
       <c r="J141" s="1" t="n">
-        <v>-2.041</v>
+        <v>-2.04</v>
       </c>
       <c r="K141" s="1" t="n">
-        <v>-2.441</v>
+        <v>-2.44</v>
       </c>
       <c r="L141" s="1" t="n"/>
       <c r="M141" s="1" t="n">
@@ -10420,7 +10420,7 @@
         <v>-2.788</v>
       </c>
       <c r="P141" s="1" t="n">
-        <v>1.666</v>
+        <v>1.667</v>
       </c>
       <c r="Q141" s="1" t="n"/>
       <c r="R141" s="1" t="n"/>
@@ -10461,7 +10461,7 @@
         <v>-0.85</v>
       </c>
       <c r="E142" s="1" t="n">
-        <v>-2.241</v>
+        <v>-2.24</v>
       </c>
       <c r="F142" s="1" t="n">
         <v>0.4</v>
@@ -10476,10 +10476,10 @@
         <v>-0.6499999999999999</v>
       </c>
       <c r="J142" s="1" t="n">
-        <v>-2.041</v>
+        <v>-2.04</v>
       </c>
       <c r="K142" s="1" t="n">
-        <v>-2.441</v>
+        <v>-2.44</v>
       </c>
       <c r="L142" s="1" t="n"/>
       <c r="M142" s="1" t="n">
@@ -10492,7 +10492,7 @@
         <v>1.088</v>
       </c>
       <c r="P142" s="1" t="n">
-        <v>1.666</v>
+        <v>1.667</v>
       </c>
       <c r="Q142" s="1" t="n"/>
       <c r="R142" s="1" t="n"/>
@@ -10533,7 +10533,7 @@
         <v>-0.85</v>
       </c>
       <c r="E143" s="1" t="n">
-        <v>-2.241</v>
+        <v>-2.24</v>
       </c>
       <c r="F143" s="1" t="n">
         <v>0.4</v>
@@ -10548,10 +10548,10 @@
         <v>-0.6499999999999999</v>
       </c>
       <c r="J143" s="1" t="n">
-        <v>-2.041</v>
+        <v>-2.04</v>
       </c>
       <c r="K143" s="1" t="n">
-        <v>-2.441</v>
+        <v>-2.44</v>
       </c>
       <c r="L143" s="1" t="n"/>
       <c r="M143" s="1" t="n">
@@ -10564,7 +10564,7 @@
         <v>-2.788</v>
       </c>
       <c r="P143" s="1" t="n">
-        <v>1.666</v>
+        <v>1.667</v>
       </c>
       <c r="Q143" s="1" t="n"/>
       <c r="R143" s="1" t="n"/>
@@ -10605,7 +10605,7 @@
         <v>-0.85</v>
       </c>
       <c r="E144" s="1" t="n">
-        <v>-2.241</v>
+        <v>-2.24</v>
       </c>
       <c r="F144" s="1" t="n">
         <v>0.4</v>
@@ -10620,10 +10620,10 @@
         <v>-0.6499999999999999</v>
       </c>
       <c r="J144" s="1" t="n">
-        <v>-2.041</v>
+        <v>-2.04</v>
       </c>
       <c r="K144" s="1" t="n">
-        <v>-2.441</v>
+        <v>-2.44</v>
       </c>
       <c r="L144" s="1" t="n"/>
       <c r="M144" s="1" t="n">
@@ -10636,7 +10636,7 @@
         <v>1.088</v>
       </c>
       <c r="P144" s="1" t="n">
-        <v>1.666</v>
+        <v>1.667</v>
       </c>
       <c r="Q144" s="1" t="n"/>
       <c r="R144" s="1" t="n"/>
@@ -10677,7 +10677,7 @@
         <v>-0.85</v>
       </c>
       <c r="E145" s="1" t="n">
-        <v>-2.241</v>
+        <v>-2.24</v>
       </c>
       <c r="F145" s="1" t="n">
         <v>0.4</v>
@@ -10692,10 +10692,10 @@
         <v>-0.6499999999999999</v>
       </c>
       <c r="J145" s="1" t="n">
-        <v>-2.041</v>
+        <v>-2.04</v>
       </c>
       <c r="K145" s="1" t="n">
-        <v>-2.441</v>
+        <v>-2.44</v>
       </c>
       <c r="L145" s="1" t="n"/>
       <c r="M145" s="1" t="n">
@@ -10708,7 +10708,7 @@
         <v>-0.85</v>
       </c>
       <c r="P145" s="1" t="n">
-        <v>-2.241</v>
+        <v>-2.24</v>
       </c>
       <c r="Q145" s="1" t="n"/>
       <c r="R145" s="1" t="n"/>
@@ -10749,7 +10749,7 @@
         <v>-0.85</v>
       </c>
       <c r="E146" s="1" t="n">
-        <v>-2.241</v>
+        <v>-2.24</v>
       </c>
       <c r="F146" s="1" t="n">
         <v>0.4</v>
@@ -10764,10 +10764,10 @@
         <v>-0.6499999999999999</v>
       </c>
       <c r="J146" s="1" t="n">
-        <v>-2.041</v>
+        <v>-2.04</v>
       </c>
       <c r="K146" s="1" t="n">
-        <v>-2.441</v>
+        <v>-2.44</v>
       </c>
       <c r="L146" s="1" t="n"/>
       <c r="M146" s="1" t="n">
@@ -10780,7 +10780,7 @@
         <v>-2.788</v>
       </c>
       <c r="P146" s="1" t="n">
-        <v>-6.168</v>
+        <v>-6.167</v>
       </c>
       <c r="Q146" s="1" t="n"/>
       <c r="R146" s="1" t="n"/>
@@ -10821,7 +10821,7 @@
         <v>-0.85</v>
       </c>
       <c r="E147" s="1" t="n">
-        <v>-2.241</v>
+        <v>-2.24</v>
       </c>
       <c r="F147" s="1" t="n">
         <v>0.4</v>
@@ -10836,10 +10836,10 @@
         <v>-0.6499999999999999</v>
       </c>
       <c r="J147" s="1" t="n">
-        <v>-2.041</v>
+        <v>-2.04</v>
       </c>
       <c r="K147" s="1" t="n">
-        <v>-2.441</v>
+        <v>-2.44</v>
       </c>
       <c r="L147" s="1" t="n"/>
       <c r="M147" s="1" t="n">
@@ -10852,7 +10852,7 @@
         <v>1.088</v>
       </c>
       <c r="P147" s="1" t="n">
-        <v>1.666</v>
+        <v>1.667</v>
       </c>
       <c r="Q147" s="1" t="n"/>
       <c r="R147" s="1" t="n"/>
@@ -10893,7 +10893,7 @@
         <v>-0.85</v>
       </c>
       <c r="E148" s="1" t="n">
-        <v>-2.241</v>
+        <v>-2.24</v>
       </c>
       <c r="F148" s="1" t="n">
         <v>0.4</v>
@@ -10908,10 +10908,10 @@
         <v>-0.6499999999999999</v>
       </c>
       <c r="J148" s="1" t="n">
-        <v>-2.041</v>
+        <v>-2.04</v>
       </c>
       <c r="K148" s="1" t="n">
-        <v>-2.441</v>
+        <v>-2.44</v>
       </c>
       <c r="L148" s="1" t="n"/>
       <c r="M148" s="1" t="n">
@@ -10924,7 +10924,7 @@
         <v>-2.788</v>
       </c>
       <c r="P148" s="1" t="n">
-        <v>-6.166</v>
+        <v>-6.165</v>
       </c>
       <c r="Q148" s="1" t="n"/>
       <c r="R148" s="1" t="n"/>
@@ -10965,7 +10965,7 @@
         <v>-0.85</v>
       </c>
       <c r="E149" s="1" t="n">
-        <v>-2.241</v>
+        <v>-2.24</v>
       </c>
       <c r="F149" s="1" t="n">
         <v>0.4</v>
@@ -10980,10 +10980,10 @@
         <v>-0.6499999999999999</v>
       </c>
       <c r="J149" s="1" t="n">
-        <v>-2.041</v>
+        <v>-2.04</v>
       </c>
       <c r="K149" s="1" t="n">
-        <v>-2.441</v>
+        <v>-2.44</v>
       </c>
       <c r="L149" s="1" t="n"/>
       <c r="M149" s="1" t="n">
@@ -10996,7 +10996,7 @@
         <v>1.088</v>
       </c>
       <c r="P149" s="1" t="n">
-        <v>-6.166</v>
+        <v>-6.165</v>
       </c>
       <c r="Q149" s="1" t="n"/>
       <c r="R149" s="1" t="n"/>
@@ -11037,7 +11037,7 @@
         <v>-0.85</v>
       </c>
       <c r="E150" s="1" t="n">
-        <v>-2.241</v>
+        <v>-2.24</v>
       </c>
       <c r="F150" s="1" t="n">
         <v>0.4</v>
@@ -11052,10 +11052,10 @@
         <v>-0.6499999999999999</v>
       </c>
       <c r="J150" s="1" t="n">
-        <v>-2.041</v>
+        <v>-2.04</v>
       </c>
       <c r="K150" s="1" t="n">
-        <v>-2.441</v>
+        <v>-2.44</v>
       </c>
       <c r="L150" s="1" t="n"/>
       <c r="M150" s="1" t="n">
@@ -11068,7 +11068,7 @@
         <v>-0.85</v>
       </c>
       <c r="P150" s="1" t="n">
-        <v>-2.241</v>
+        <v>-2.24</v>
       </c>
       <c r="Q150" s="1" t="n"/>
       <c r="R150" s="1" t="n"/>
@@ -11109,7 +11109,7 @@
         <v>-0.85</v>
       </c>
       <c r="E151" s="1" t="n">
-        <v>-2.241</v>
+        <v>-2.24</v>
       </c>
       <c r="F151" s="1" t="n">
         <v>0.4</v>
@@ -11124,10 +11124,10 @@
         <v>-0.6499999999999999</v>
       </c>
       <c r="J151" s="1" t="n">
-        <v>-2.041</v>
+        <v>-2.04</v>
       </c>
       <c r="K151" s="1" t="n">
-        <v>-2.441</v>
+        <v>-2.44</v>
       </c>
       <c r="L151" s="1" t="n"/>
       <c r="M151" s="1" t="n">
@@ -11140,7 +11140,7 @@
         <v>-2.788</v>
       </c>
       <c r="P151" s="1" t="n">
-        <v>-6.166</v>
+        <v>-6.165</v>
       </c>
       <c r="Q151" s="1" t="n"/>
       <c r="R151" s="1" t="n"/>
@@ -11181,7 +11181,7 @@
         <v>-0.85</v>
       </c>
       <c r="E152" s="1" t="n">
-        <v>-2.241</v>
+        <v>-2.24</v>
       </c>
       <c r="F152" s="1" t="n">
         <v>0.4</v>
@@ -11196,10 +11196,10 @@
         <v>-0.6499999999999999</v>
       </c>
       <c r="J152" s="1" t="n">
-        <v>-2.041</v>
+        <v>-2.04</v>
       </c>
       <c r="K152" s="1" t="n">
-        <v>-2.441</v>
+        <v>-2.44</v>
       </c>
       <c r="L152" s="1" t="n"/>
       <c r="M152" s="1" t="n">
@@ -11212,7 +11212,7 @@
         <v>1.088</v>
       </c>
       <c r="P152" s="1" t="n">
-        <v>-6.166</v>
+        <v>-6.165</v>
       </c>
       <c r="Q152" s="1" t="n"/>
       <c r="R152" s="1" t="n"/>
@@ -18567,7 +18567,7 @@
         <v>-4.15</v>
       </c>
       <c r="E255" s="1" t="n">
-        <v>-0.351</v>
+        <v>-0.35</v>
       </c>
       <c r="F255" s="1" t="n">
         <v>0.6</v>
@@ -18582,10 +18582,10 @@
         <v>-3.850000000000001</v>
       </c>
       <c r="J255" s="1" t="n">
-        <v>-0.151</v>
+        <v>-0.15</v>
       </c>
       <c r="K255" s="1" t="n">
-        <v>-0.5509999999999999</v>
+        <v>-0.55</v>
       </c>
       <c r="L255" s="1" t="n"/>
       <c r="M255" s="1" t="n">
@@ -18598,7 +18598,7 @@
         <v>-4.15</v>
       </c>
       <c r="P255" s="1" t="n">
-        <v>-0.351</v>
+        <v>-0.35</v>
       </c>
       <c r="Q255" s="1" t="n"/>
       <c r="R255" s="1" t="n"/>
@@ -18639,7 +18639,7 @@
         <v>-4.15</v>
       </c>
       <c r="E256" s="1" t="n">
-        <v>-0.351</v>
+        <v>-0.35</v>
       </c>
       <c r="F256" s="1" t="n">
         <v>0.6</v>
@@ -18654,10 +18654,10 @@
         <v>-3.850000000000001</v>
       </c>
       <c r="J256" s="1" t="n">
-        <v>-0.151</v>
+        <v>-0.15</v>
       </c>
       <c r="K256" s="1" t="n">
-        <v>-0.5509999999999999</v>
+        <v>-0.55</v>
       </c>
       <c r="L256" s="1" t="n"/>
       <c r="M256" s="1" t="n">
@@ -18670,7 +18670,7 @@
         <v>-4.15</v>
       </c>
       <c r="P256" s="1" t="n">
-        <v>-0.351</v>
+        <v>-0.35</v>
       </c>
       <c r="Q256" s="1" t="n"/>
       <c r="R256" s="1" t="n"/>
@@ -18711,7 +18711,7 @@
         <v>-4.15</v>
       </c>
       <c r="E257" s="1" t="n">
-        <v>-0.351</v>
+        <v>-0.35</v>
       </c>
       <c r="F257" s="1" t="n">
         <v>0.6</v>
@@ -18726,10 +18726,10 @@
         <v>-3.850000000000001</v>
       </c>
       <c r="J257" s="1" t="n">
-        <v>-0.151</v>
+        <v>-0.15</v>
       </c>
       <c r="K257" s="1" t="n">
-        <v>-0.5509999999999999</v>
+        <v>-0.55</v>
       </c>
       <c r="L257" s="1" t="n"/>
       <c r="M257" s="1" t="n">
@@ -18742,7 +18742,7 @@
         <v>-4.15</v>
       </c>
       <c r="P257" s="1" t="n">
-        <v>-0.351</v>
+        <v>-0.35</v>
       </c>
       <c r="Q257" s="1" t="n"/>
       <c r="R257" s="1" t="n"/>
@@ -20007,7 +20007,7 @@
         <v>-4.85</v>
       </c>
       <c r="E275" s="1" t="n">
-        <v>-0.801</v>
+        <v>-0.8</v>
       </c>
       <c r="F275" s="1" t="n">
         <v>0.7</v>
@@ -20022,10 +20022,10 @@
         <v>-4.5</v>
       </c>
       <c r="J275" s="1" t="n">
-        <v>-0.601</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="K275" s="1" t="n">
-        <v>-1.001</v>
+        <v>-1</v>
       </c>
       <c r="L275" s="1" t="n"/>
       <c r="M275" s="1" t="n">
@@ -20038,7 +20038,7 @@
         <v>-4.85</v>
       </c>
       <c r="P275" s="1" t="n">
-        <v>-0.801</v>
+        <v>-0.8</v>
       </c>
       <c r="Q275" s="1" t="n"/>
       <c r="R275" s="1" t="n"/>
@@ -20220,7 +20220,7 @@
         <v>94</v>
       </c>
       <c r="D278" s="1" t="n">
-        <v>-7.200001</v>
+        <v>-7.2</v>
       </c>
       <c r="E278" s="1" t="n">
         <v>-6.25</v>
@@ -20232,10 +20232,10 @@
         <v>4.1</v>
       </c>
       <c r="H278" s="1" t="n">
-        <v>-7.400001</v>
+        <v>-7.4</v>
       </c>
       <c r="I278" s="1" t="n">
-        <v>-7.000001</v>
+        <v>-7</v>
       </c>
       <c r="J278" s="1" t="n">
         <v>-4.2</v>
@@ -20251,7 +20251,7 @@
         <v>0</v>
       </c>
       <c r="O278" s="1" t="n">
-        <v>-7.200001</v>
+        <v>-7.2</v>
       </c>
       <c r="P278" s="1" t="n">
         <v>-6.25</v>
@@ -20292,7 +20292,7 @@
         <v>94</v>
       </c>
       <c r="D279" s="1" t="n">
-        <v>-7.200001</v>
+        <v>-7.2</v>
       </c>
       <c r="E279" s="1" t="n">
         <v>-6.25</v>
@@ -20304,10 +20304,10 @@
         <v>4.1</v>
       </c>
       <c r="H279" s="1" t="n">
-        <v>-7.400001</v>
+        <v>-7.4</v>
       </c>
       <c r="I279" s="1" t="n">
-        <v>-7.000001</v>
+        <v>-7</v>
       </c>
       <c r="J279" s="1" t="n">
         <v>-4.2</v>
@@ -20323,7 +20323,7 @@
         <v>0</v>
       </c>
       <c r="O279" s="1" t="n">
-        <v>-7.200001</v>
+        <v>-7.2</v>
       </c>
       <c r="P279" s="1" t="n">
         <v>-6.25</v>
@@ -20364,7 +20364,7 @@
         <v>94</v>
       </c>
       <c r="D280" s="1" t="n">
-        <v>-7.200001</v>
+        <v>-7.2</v>
       </c>
       <c r="E280" s="1" t="n">
         <v>-6.25</v>
@@ -20376,10 +20376,10 @@
         <v>4.1</v>
       </c>
       <c r="H280" s="1" t="n">
-        <v>-7.400001</v>
+        <v>-7.4</v>
       </c>
       <c r="I280" s="1" t="n">
-        <v>-7.000001</v>
+        <v>-7</v>
       </c>
       <c r="J280" s="1" t="n">
         <v>-4.2</v>
@@ -20395,7 +20395,7 @@
         <v>0</v>
       </c>
       <c r="O280" s="1" t="n">
-        <v>-7.200001</v>
+        <v>-7.2</v>
       </c>
       <c r="P280" s="1" t="n">
         <v>-6.25</v>
@@ -20436,7 +20436,7 @@
         <v>94</v>
       </c>
       <c r="D281" s="1" t="n">
-        <v>-7.200001</v>
+        <v>-7.2</v>
       </c>
       <c r="E281" s="1" t="n">
         <v>-6.25</v>
@@ -20448,10 +20448,10 @@
         <v>4.1</v>
       </c>
       <c r="H281" s="1" t="n">
-        <v>-7.400001</v>
+        <v>-7.4</v>
       </c>
       <c r="I281" s="1" t="n">
-        <v>-7.000001</v>
+        <v>-7</v>
       </c>
       <c r="J281" s="1" t="n">
         <v>-4.2</v>
@@ -20467,7 +20467,7 @@
         <v>0</v>
       </c>
       <c r="O281" s="1" t="n">
-        <v>-7.200001</v>
+        <v>-7.2</v>
       </c>
       <c r="P281" s="1" t="n">
         <v>-6.25</v>
@@ -20508,7 +20508,7 @@
         <v>94</v>
       </c>
       <c r="D282" s="1" t="n">
-        <v>-7.200001</v>
+        <v>-7.2</v>
       </c>
       <c r="E282" s="1" t="n">
         <v>-6.25</v>
@@ -20520,10 +20520,10 @@
         <v>4.1</v>
       </c>
       <c r="H282" s="1" t="n">
-        <v>-7.400001</v>
+        <v>-7.4</v>
       </c>
       <c r="I282" s="1" t="n">
-        <v>-7.000001</v>
+        <v>-7</v>
       </c>
       <c r="J282" s="1" t="n">
         <v>-4.2</v>
@@ -20539,7 +20539,7 @@
         <v>0</v>
       </c>
       <c r="O282" s="1" t="n">
-        <v>-7.200001</v>
+        <v>-7.2</v>
       </c>
       <c r="P282" s="1" t="n">
         <v>-6.25</v>
@@ -20580,7 +20580,7 @@
         <v>94</v>
       </c>
       <c r="D283" s="1" t="n">
-        <v>-7.200001</v>
+        <v>-7.2</v>
       </c>
       <c r="E283" s="1" t="n">
         <v>-6.25</v>
@@ -20592,10 +20592,10 @@
         <v>4.1</v>
       </c>
       <c r="H283" s="1" t="n">
-        <v>-7.400001</v>
+        <v>-7.4</v>
       </c>
       <c r="I283" s="1" t="n">
-        <v>-7.000001</v>
+        <v>-7</v>
       </c>
       <c r="J283" s="1" t="n">
         <v>-4.2</v>
@@ -20611,7 +20611,7 @@
         <v>0</v>
       </c>
       <c r="O283" s="1" t="n">
-        <v>-7.200001</v>
+        <v>-7.2</v>
       </c>
       <c r="P283" s="1" t="n">
         <v>-6.25</v>
@@ -20652,7 +20652,7 @@
         <v>94</v>
       </c>
       <c r="D284" s="1" t="n">
-        <v>-7.200001</v>
+        <v>-7.2</v>
       </c>
       <c r="E284" s="1" t="n">
         <v>-6.25</v>
@@ -20664,10 +20664,10 @@
         <v>4.1</v>
       </c>
       <c r="H284" s="1" t="n">
-        <v>-7.400001</v>
+        <v>-7.4</v>
       </c>
       <c r="I284" s="1" t="n">
-        <v>-7.000001</v>
+        <v>-7</v>
       </c>
       <c r="J284" s="1" t="n">
         <v>-4.2</v>
@@ -20683,7 +20683,7 @@
         <v>0</v>
       </c>
       <c r="O284" s="1" t="n">
-        <v>-7.200001</v>
+        <v>-7.2</v>
       </c>
       <c r="P284" s="1" t="n">
         <v>-6.25</v>
@@ -20724,7 +20724,7 @@
         <v>94</v>
       </c>
       <c r="D285" s="1" t="n">
-        <v>-7.200001</v>
+        <v>-7.2</v>
       </c>
       <c r="E285" s="1" t="n">
         <v>-6.25</v>
@@ -20736,10 +20736,10 @@
         <v>4.1</v>
       </c>
       <c r="H285" s="1" t="n">
-        <v>-7.400001</v>
+        <v>-7.4</v>
       </c>
       <c r="I285" s="1" t="n">
-        <v>-7.000001</v>
+        <v>-7</v>
       </c>
       <c r="J285" s="1" t="n">
         <v>-4.2</v>
@@ -20755,7 +20755,7 @@
         <v>0</v>
       </c>
       <c r="O285" s="1" t="n">
-        <v>-7.200001</v>
+        <v>-7.2</v>
       </c>
       <c r="P285" s="1" t="n">
         <v>-6.25</v>
@@ -20796,7 +20796,7 @@
         <v>94</v>
       </c>
       <c r="D286" s="1" t="n">
-        <v>-7.200001</v>
+        <v>-7.2</v>
       </c>
       <c r="E286" s="1" t="n">
         <v>-6.25</v>
@@ -20808,10 +20808,10 @@
         <v>4.1</v>
       </c>
       <c r="H286" s="1" t="n">
-        <v>-7.400001</v>
+        <v>-7.4</v>
       </c>
       <c r="I286" s="1" t="n">
-        <v>-7.000001</v>
+        <v>-7</v>
       </c>
       <c r="J286" s="1" t="n">
         <v>-4.2</v>
@@ -20827,7 +20827,7 @@
         <v>0</v>
       </c>
       <c r="O286" s="1" t="n">
-        <v>-7.200001</v>
+        <v>-7.2</v>
       </c>
       <c r="P286" s="1" t="n">
         <v>-6.25</v>
@@ -20868,7 +20868,7 @@
         <v>94</v>
       </c>
       <c r="D287" s="1" t="n">
-        <v>-7.200001</v>
+        <v>-7.2</v>
       </c>
       <c r="E287" s="1" t="n">
         <v>-6.25</v>
@@ -20880,10 +20880,10 @@
         <v>4.1</v>
       </c>
       <c r="H287" s="1" t="n">
-        <v>-7.400001</v>
+        <v>-7.4</v>
       </c>
       <c r="I287" s="1" t="n">
-        <v>-7.000001</v>
+        <v>-7</v>
       </c>
       <c r="J287" s="1" t="n">
         <v>-4.2</v>
@@ -20899,7 +20899,7 @@
         <v>0</v>
       </c>
       <c r="O287" s="1" t="n">
-        <v>-7.200001</v>
+        <v>-7.2</v>
       </c>
       <c r="P287" s="1" t="n">
         <v>-6.25</v>
@@ -20940,7 +20940,7 @@
         <v>94</v>
       </c>
       <c r="D288" s="1" t="n">
-        <v>-7.200001</v>
+        <v>-7.2</v>
       </c>
       <c r="E288" s="1" t="n">
         <v>-6.25</v>
@@ -20952,10 +20952,10 @@
         <v>4.1</v>
       </c>
       <c r="H288" s="1" t="n">
-        <v>-7.400001</v>
+        <v>-7.4</v>
       </c>
       <c r="I288" s="1" t="n">
-        <v>-7.000001</v>
+        <v>-7</v>
       </c>
       <c r="J288" s="1" t="n">
         <v>-4.2</v>
@@ -20971,7 +20971,7 @@
         <v>0</v>
       </c>
       <c r="O288" s="1" t="n">
-        <v>-7.200001</v>
+        <v>-7.2</v>
       </c>
       <c r="P288" s="1" t="n">
         <v>-6.25</v>
@@ -21012,7 +21012,7 @@
         <v>94</v>
       </c>
       <c r="D289" s="1" t="n">
-        <v>-7.200001</v>
+        <v>-7.2</v>
       </c>
       <c r="E289" s="1" t="n">
         <v>-6.25</v>
@@ -21024,10 +21024,10 @@
         <v>4.1</v>
       </c>
       <c r="H289" s="1" t="n">
-        <v>-7.400001</v>
+        <v>-7.4</v>
       </c>
       <c r="I289" s="1" t="n">
-        <v>-7.000001</v>
+        <v>-7</v>
       </c>
       <c r="J289" s="1" t="n">
         <v>-4.2</v>
@@ -21043,7 +21043,7 @@
         <v>0</v>
       </c>
       <c r="O289" s="1" t="n">
-        <v>-7.200001</v>
+        <v>-7.2</v>
       </c>
       <c r="P289" s="1" t="n">
         <v>-6.25</v>
@@ -21084,7 +21084,7 @@
         <v>94</v>
       </c>
       <c r="D290" s="1" t="n">
-        <v>-7.200001</v>
+        <v>-7.2</v>
       </c>
       <c r="E290" s="1" t="n">
         <v>-6.25</v>
@@ -21096,10 +21096,10 @@
         <v>4.1</v>
       </c>
       <c r="H290" s="1" t="n">
-        <v>-7.400001</v>
+        <v>-7.4</v>
       </c>
       <c r="I290" s="1" t="n">
-        <v>-7.000001</v>
+        <v>-7</v>
       </c>
       <c r="J290" s="1" t="n">
         <v>-4.2</v>
@@ -21115,7 +21115,7 @@
         <v>0</v>
       </c>
       <c r="O290" s="1" t="n">
-        <v>-7.200001</v>
+        <v>-7.2</v>
       </c>
       <c r="P290" s="1" t="n">
         <v>-6.25</v>
@@ -21156,7 +21156,7 @@
         <v>94</v>
       </c>
       <c r="D291" s="1" t="n">
-        <v>-7.200001</v>
+        <v>-7.2</v>
       </c>
       <c r="E291" s="1" t="n">
         <v>-6.25</v>
@@ -21168,10 +21168,10 @@
         <v>4.1</v>
       </c>
       <c r="H291" s="1" t="n">
-        <v>-7.400001</v>
+        <v>-7.4</v>
       </c>
       <c r="I291" s="1" t="n">
-        <v>-7.000001</v>
+        <v>-7</v>
       </c>
       <c r="J291" s="1" t="n">
         <v>-4.2</v>
@@ -21187,7 +21187,7 @@
         <v>0</v>
       </c>
       <c r="O291" s="1" t="n">
-        <v>-7.200001</v>
+        <v>-7.2</v>
       </c>
       <c r="P291" s="1" t="n">
         <v>-6.25</v>
@@ -21228,7 +21228,7 @@
         <v>94</v>
       </c>
       <c r="D292" s="1" t="n">
-        <v>-7.200001</v>
+        <v>-7.2</v>
       </c>
       <c r="E292" s="1" t="n">
         <v>-6.25</v>
@@ -21240,10 +21240,10 @@
         <v>4.1</v>
       </c>
       <c r="H292" s="1" t="n">
-        <v>-7.400001</v>
+        <v>-7.4</v>
       </c>
       <c r="I292" s="1" t="n">
-        <v>-7.000001</v>
+        <v>-7</v>
       </c>
       <c r="J292" s="1" t="n">
         <v>-4.2</v>
@@ -21259,7 +21259,7 @@
         <v>0</v>
       </c>
       <c r="O292" s="1" t="n">
-        <v>-7.200001</v>
+        <v>-7.2</v>
       </c>
       <c r="P292" s="1" t="n">
         <v>-6.25</v>
@@ -21300,7 +21300,7 @@
         <v>94</v>
       </c>
       <c r="D293" s="1" t="n">
-        <v>-7.200001</v>
+        <v>-7.2</v>
       </c>
       <c r="E293" s="1" t="n">
         <v>-6.25</v>
@@ -21312,10 +21312,10 @@
         <v>4.1</v>
       </c>
       <c r="H293" s="1" t="n">
-        <v>-7.400001</v>
+        <v>-7.4</v>
       </c>
       <c r="I293" s="1" t="n">
-        <v>-7.000001</v>
+        <v>-7</v>
       </c>
       <c r="J293" s="1" t="n">
         <v>-4.2</v>
@@ -21331,7 +21331,7 @@
         <v>0</v>
       </c>
       <c r="O293" s="1" t="n">
-        <v>-7.200001</v>
+        <v>-7.2</v>
       </c>
       <c r="P293" s="1" t="n">
         <v>-6.25</v>
@@ -21372,7 +21372,7 @@
         <v>94</v>
       </c>
       <c r="D294" s="1" t="n">
-        <v>-7.200001</v>
+        <v>-7.2</v>
       </c>
       <c r="E294" s="1" t="n">
         <v>-6.25</v>
@@ -21384,10 +21384,10 @@
         <v>4.1</v>
       </c>
       <c r="H294" s="1" t="n">
-        <v>-7.400001</v>
+        <v>-7.4</v>
       </c>
       <c r="I294" s="1" t="n">
-        <v>-7.000001</v>
+        <v>-7</v>
       </c>
       <c r="J294" s="1" t="n">
         <v>-4.2</v>
@@ -21403,7 +21403,7 @@
         <v>0</v>
       </c>
       <c r="O294" s="1" t="n">
-        <v>-7.200001</v>
+        <v>-7.2</v>
       </c>
       <c r="P294" s="1" t="n">
         <v>-6.25</v>
@@ -21444,7 +21444,7 @@
         <v>94</v>
       </c>
       <c r="D295" s="1" t="n">
-        <v>-7.200001</v>
+        <v>-7.2</v>
       </c>
       <c r="E295" s="1" t="n">
         <v>-6.25</v>
@@ -21456,10 +21456,10 @@
         <v>4.1</v>
       </c>
       <c r="H295" s="1" t="n">
-        <v>-7.400001</v>
+        <v>-7.4</v>
       </c>
       <c r="I295" s="1" t="n">
-        <v>-7.000001</v>
+        <v>-7</v>
       </c>
       <c r="J295" s="1" t="n">
         <v>-4.2</v>
@@ -21475,7 +21475,7 @@
         <v>0</v>
       </c>
       <c r="O295" s="1" t="n">
-        <v>-7.200001</v>
+        <v>-7.2</v>
       </c>
       <c r="P295" s="1" t="n">
         <v>-6.25</v>
@@ -21516,7 +21516,7 @@
         <v>94</v>
       </c>
       <c r="D296" s="1" t="n">
-        <v>-7.200001</v>
+        <v>-7.2</v>
       </c>
       <c r="E296" s="1" t="n">
         <v>-6.25</v>
@@ -21528,10 +21528,10 @@
         <v>4.1</v>
       </c>
       <c r="H296" s="1" t="n">
-        <v>-7.400001</v>
+        <v>-7.4</v>
       </c>
       <c r="I296" s="1" t="n">
-        <v>-7.000001</v>
+        <v>-7</v>
       </c>
       <c r="J296" s="1" t="n">
         <v>-4.2</v>
@@ -21547,7 +21547,7 @@
         <v>0</v>
       </c>
       <c r="O296" s="1" t="n">
-        <v>-7.200001</v>
+        <v>-7.2</v>
       </c>
       <c r="P296" s="1" t="n">
         <v>-6.25</v>
@@ -21588,7 +21588,7 @@
         <v>94</v>
       </c>
       <c r="D297" s="1" t="n">
-        <v>-7.200001</v>
+        <v>-7.2</v>
       </c>
       <c r="E297" s="1" t="n">
         <v>-6.25</v>
@@ -21600,10 +21600,10 @@
         <v>4.1</v>
       </c>
       <c r="H297" s="1" t="n">
-        <v>-7.400001</v>
+        <v>-7.4</v>
       </c>
       <c r="I297" s="1" t="n">
-        <v>-7.000001</v>
+        <v>-7</v>
       </c>
       <c r="J297" s="1" t="n">
         <v>-4.2</v>
@@ -21619,7 +21619,7 @@
         <v>0</v>
       </c>
       <c r="O297" s="1" t="n">
-        <v>-7.200001</v>
+        <v>-7.2</v>
       </c>
       <c r="P297" s="1" t="n">
         <v>-6.25</v>
@@ -21660,7 +21660,7 @@
         <v>94</v>
       </c>
       <c r="D298" s="1" t="n">
-        <v>-7.200001</v>
+        <v>-7.2</v>
       </c>
       <c r="E298" s="1" t="n">
         <v>-6.25</v>
@@ -21672,10 +21672,10 @@
         <v>4.1</v>
       </c>
       <c r="H298" s="1" t="n">
-        <v>-7.400001</v>
+        <v>-7.4</v>
       </c>
       <c r="I298" s="1" t="n">
-        <v>-7.000001</v>
+        <v>-7</v>
       </c>
       <c r="J298" s="1" t="n">
         <v>-4.2</v>
@@ -21691,7 +21691,7 @@
         <v>0</v>
       </c>
       <c r="O298" s="1" t="n">
-        <v>-7.200001</v>
+        <v>-7.2</v>
       </c>
       <c r="P298" s="1" t="n">
         <v>-6.25</v>
@@ -21732,7 +21732,7 @@
         <v>94</v>
       </c>
       <c r="D299" s="1" t="n">
-        <v>-7.200001</v>
+        <v>-7.2</v>
       </c>
       <c r="E299" s="1" t="n">
         <v>-6.25</v>
@@ -21744,10 +21744,10 @@
         <v>4.1</v>
       </c>
       <c r="H299" s="1" t="n">
-        <v>-7.400001</v>
+        <v>-7.4</v>
       </c>
       <c r="I299" s="1" t="n">
-        <v>-7.000001</v>
+        <v>-7</v>
       </c>
       <c r="J299" s="1" t="n">
         <v>-4.2</v>
@@ -21763,7 +21763,7 @@
         <v>0</v>
       </c>
       <c r="O299" s="1" t="n">
-        <v>-7.200001</v>
+        <v>-7.2</v>
       </c>
       <c r="P299" s="1" t="n">
         <v>-6.25</v>
@@ -29073,7 +29073,7 @@
         <v>-1.95</v>
       </c>
       <c r="E401" s="1" t="n">
-        <v>-2.241</v>
+        <v>-2.24</v>
       </c>
       <c r="F401" s="1" t="n">
         <v>1.7</v>
@@ -29088,10 +29088,10 @@
         <v>-1.1</v>
       </c>
       <c r="J401" s="1" t="n">
-        <v>-2.041</v>
+        <v>-2.04</v>
       </c>
       <c r="K401" s="1" t="n">
-        <v>-2.441</v>
+        <v>-2.44</v>
       </c>
       <c r="L401" s="1" t="n"/>
       <c r="M401" s="1" t="n">
@@ -29104,7 +29104,7 @@
         <v>-1.95</v>
       </c>
       <c r="P401" s="1" t="n">
-        <v>-2.241</v>
+        <v>-2.24</v>
       </c>
       <c r="Q401" s="1" t="n"/>
       <c r="R401" s="1" t="n"/>
@@ -29145,7 +29145,7 @@
         <v>-1.95</v>
       </c>
       <c r="E402" s="1" t="n">
-        <v>-2.241</v>
+        <v>-2.24</v>
       </c>
       <c r="F402" s="1" t="n">
         <v>1.7</v>
@@ -29160,10 +29160,10 @@
         <v>-1.1</v>
       </c>
       <c r="J402" s="1" t="n">
-        <v>-2.041</v>
+        <v>-2.04</v>
       </c>
       <c r="K402" s="1" t="n">
-        <v>-2.441</v>
+        <v>-2.44</v>
       </c>
       <c r="L402" s="1" t="n"/>
       <c r="M402" s="1" t="n">
@@ -29176,7 +29176,7 @@
         <v>-1.95</v>
       </c>
       <c r="P402" s="1" t="n">
-        <v>-2.241</v>
+        <v>-2.24</v>
       </c>
       <c r="Q402" s="1" t="n"/>
       <c r="R402" s="1" t="n"/>
@@ -37416,28 +37416,28 @@
         <v>141</v>
       </c>
       <c r="D517" s="1" t="n">
-        <v>0</v>
+        <v>0.312</v>
       </c>
       <c r="E517" s="1" t="n">
-        <v>0</v>
+        <v>-7.925</v>
       </c>
       <c r="F517" s="1" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="G517" s="1" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="H517" s="1" t="n">
-        <v>0</v>
+        <v>-3.988</v>
       </c>
       <c r="I517" s="1" t="n">
-        <v>0</v>
+        <v>4.612</v>
       </c>
       <c r="J517" s="1" t="n">
-        <v>0</v>
+        <v>-7.35</v>
       </c>
       <c r="K517" s="1" t="n">
-        <v>0</v>
+        <v>-8.5</v>
       </c>
       <c r="L517" s="1" t="n"/>
       <c r="M517" s="1" t="n">
@@ -37447,14 +37447,16 @@
         <v>0</v>
       </c>
       <c r="O517" s="1" t="n">
-        <v>0</v>
+        <v>0.312</v>
       </c>
       <c r="P517" s="1" t="n">
-        <v>0</v>
+        <v>-7.925</v>
       </c>
       <c r="Q517" s="1" t="n"/>
       <c r="R517" s="1" t="n"/>
-      <c r="S517" s="1" t="s"/>
+      <c r="S517" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="T517" s="1" t="n">
         <v>9</v>
       </c>
@@ -37486,28 +37488,28 @@
         <v>142</v>
       </c>
       <c r="D518" s="1" t="n">
-        <v>0</v>
+        <v>-7.95</v>
       </c>
       <c r="E518" s="1" t="n">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="F518" s="1" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G518" s="1" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="H518" s="1" t="n">
-        <v>0</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="I518" s="1" t="n">
-        <v>0</v>
+        <v>-7.600000000000001</v>
       </c>
       <c r="J518" s="1" t="n">
-        <v>0</v>
+        <v>10.05</v>
       </c>
       <c r="K518" s="1" t="n">
-        <v>0</v>
+        <v>4.149999999999999</v>
       </c>
       <c r="L518" s="1" t="n"/>
       <c r="M518" s="1" t="n">
@@ -37517,14 +37519,16 @@
         <v>0</v>
       </c>
       <c r="O518" s="1" t="n">
-        <v>0</v>
+        <v>-7.95</v>
       </c>
       <c r="P518" s="1" t="n">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="Q518" s="1" t="n"/>
       <c r="R518" s="1" t="n"/>
-      <c r="S518" s="1" t="s"/>
+      <c r="S518" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="T518" s="1" t="n">
         <v>1</v>
       </c>

--- a/masks/code/TKIDModule_spreadsheet_20200406_AW.xlsx
+++ b/masks/code/TKIDModule_spreadsheet_20200406_AW.xlsx
@@ -2403,7 +2403,7 @@
         <v>8.550000000000001</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>-8.4</v>
+        <v>-8.574999999999999</v>
       </c>
       <c r="F30" s="1" t="n">
         <v>1</v>
@@ -2418,10 +2418,10 @@
         <v>9.050000000000001</v>
       </c>
       <c r="J30" s="1" t="n">
-        <v>-7.5</v>
+        <v>-7.674999999999999</v>
       </c>
       <c r="K30" s="1" t="n">
-        <v>-8.950000000000001</v>
+        <v>-9.125</v>
       </c>
       <c r="L30" s="1" t="n"/>
       <c r="M30" s="1" t="n">
@@ -2434,7 +2434,7 @@
         <v>8.550000000000001</v>
       </c>
       <c r="P30" s="1" t="n">
-        <v>-8.4</v>
+        <v>-8.574999999999999</v>
       </c>
       <c r="Q30" s="1" t="n"/>
       <c r="R30" s="1" t="n"/>
@@ -2475,7 +2475,7 @@
         <v>8.550000000000001</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>-8.4</v>
+        <v>-8.574999999999999</v>
       </c>
       <c r="F31" s="1" t="n">
         <v>1</v>
@@ -2490,10 +2490,10 @@
         <v>9.050000000000001</v>
       </c>
       <c r="J31" s="1" t="n">
-        <v>-7.5</v>
+        <v>-7.674999999999999</v>
       </c>
       <c r="K31" s="1" t="n">
-        <v>-8.950000000000001</v>
+        <v>-9.125</v>
       </c>
       <c r="L31" s="1" t="n"/>
       <c r="M31" s="1" t="n">
@@ -2506,7 +2506,7 @@
         <v>8.550000000000001</v>
       </c>
       <c r="P31" s="1" t="n">
-        <v>-8.4</v>
+        <v>-8.574999999999999</v>
       </c>
       <c r="Q31" s="1" t="n"/>
       <c r="R31" s="1" t="n"/>
@@ -9597,7 +9597,7 @@
         <v>-9.659000000000001</v>
       </c>
       <c r="E130" s="1" t="n">
-        <v>-9.175000000000001</v>
+        <v>-9.225</v>
       </c>
       <c r="F130" s="1" t="n">
         <v>1.44</v>
@@ -9612,10 +9612,10 @@
         <v>-8.939</v>
       </c>
       <c r="J130" s="1" t="n">
-        <v>-7.700000000000001</v>
+        <v>-7.75</v>
       </c>
       <c r="K130" s="1" t="n">
-        <v>-10.65</v>
+        <v>-10.7</v>
       </c>
       <c r="L130" s="1" t="n"/>
       <c r="M130" s="1" t="n">
@@ -9628,7 +9628,7 @@
         <v>-9.659000000000001</v>
       </c>
       <c r="P130" s="1" t="n">
-        <v>-9.175000000000001</v>
+        <v>-9.225</v>
       </c>
       <c r="Q130" s="1" t="n"/>
       <c r="R130" s="1" t="n"/>
@@ -10029,7 +10029,7 @@
         <v>-4.544</v>
       </c>
       <c r="E136" s="1" t="n">
-        <v>-9.144</v>
+        <v>-7.844</v>
       </c>
       <c r="F136" s="1" t="n">
         <v>1.012</v>
@@ -10044,10 +10044,10 @@
         <v>-4.037999999999999</v>
       </c>
       <c r="J136" s="1" t="n">
-        <v>-7.3</v>
+        <v>-7.300000000000001</v>
       </c>
       <c r="K136" s="1" t="n">
-        <v>-8.388999999999999</v>
+        <v>-8.389000000000001</v>
       </c>
       <c r="L136" s="1" t="n"/>
       <c r="M136" s="1" t="n">
@@ -10060,7 +10060,7 @@
         <v>-4.544</v>
       </c>
       <c r="P136" s="1" t="n">
-        <v>-9.144</v>
+        <v>-7.844</v>
       </c>
       <c r="Q136" s="1" t="n"/>
       <c r="R136" s="1" t="n"/>
@@ -10077,7 +10077,7 @@
         <v>-34.659</v>
       </c>
       <c r="W136" s="1" t="n">
-        <v>-1.435</v>
+        <v>-0.135</v>
       </c>
       <c r="X136" s="1" t="n">
         <v>0</v>

--- a/masks/code/TKIDModule_spreadsheet_20200406_AW.xlsx
+++ b/masks/code/TKIDModule_spreadsheet_20200406_AW.xlsx
@@ -1536,7 +1536,7 @@
         <v>33</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>-4.218</v>
+        <v>-4.25</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>-0.95</v>
@@ -1548,10 +1548,10 @@
         <v>0.6</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>-4.418</v>
+        <v>-4.45</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>-4.018</v>
+        <v>-4.05</v>
       </c>
       <c r="J18" s="1" t="n">
         <v>-0.6499999999999999</v>
@@ -1567,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="1" t="n">
-        <v>-4.218</v>
+        <v>-4.25</v>
       </c>
       <c r="P18" s="1" t="n">
         <v>-0.95</v>
@@ -1608,7 +1608,7 @@
         <v>33</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>-4.218</v>
+        <v>-4.25</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>-0.95</v>
@@ -1620,10 +1620,10 @@
         <v>0.6</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>-4.418</v>
+        <v>-4.45</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>-4.018</v>
+        <v>-4.05</v>
       </c>
       <c r="J19" s="1" t="n">
         <v>-0.6499999999999999</v>
@@ -1639,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="1" t="n">
-        <v>-4.218</v>
+        <v>-4.25</v>
       </c>
       <c r="P19" s="1" t="n">
         <v>-0.95</v>
@@ -2418,10 +2418,10 @@
         <v>9.050000000000001</v>
       </c>
       <c r="J30" s="1" t="n">
-        <v>-7.674999999999999</v>
+        <v>-7.85</v>
       </c>
       <c r="K30" s="1" t="n">
-        <v>-9.125</v>
+        <v>-9.299999999999999</v>
       </c>
       <c r="L30" s="1" t="n"/>
       <c r="M30" s="1" t="n">
@@ -2451,7 +2451,7 @@
         <v>-35.26</v>
       </c>
       <c r="W30" s="1" t="n">
-        <v>1.12</v>
+        <v>1.295</v>
       </c>
       <c r="X30" s="1" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>9.050000000000001</v>
       </c>
       <c r="J31" s="1" t="n">
-        <v>-7.674999999999999</v>
+        <v>-7.85</v>
       </c>
       <c r="K31" s="1" t="n">
-        <v>-9.125</v>
+        <v>-9.299999999999999</v>
       </c>
       <c r="L31" s="1" t="n"/>
       <c r="M31" s="1" t="n">
@@ -2523,7 +2523,7 @@
         <v>-35.26</v>
       </c>
       <c r="W31" s="1" t="n">
-        <v>-13.81</v>
+        <v>-13.635</v>
       </c>
       <c r="X31" s="1" t="n">
         <v>0</v>
@@ -9594,10 +9594,10 @@
         <v>59</v>
       </c>
       <c r="D130" s="1" t="n">
-        <v>-9.659000000000001</v>
+        <v>-9.66</v>
       </c>
       <c r="E130" s="1" t="n">
-        <v>-9.225</v>
+        <v>-9.25</v>
       </c>
       <c r="F130" s="1" t="n">
         <v>1.44</v>
@@ -9606,16 +9606,16 @@
         <v>2.95</v>
       </c>
       <c r="H130" s="1" t="n">
-        <v>-10.379</v>
+        <v>-10.38</v>
       </c>
       <c r="I130" s="1" t="n">
-        <v>-8.939</v>
+        <v>-8.94</v>
       </c>
       <c r="J130" s="1" t="n">
-        <v>-7.75</v>
+        <v>-7.775</v>
       </c>
       <c r="K130" s="1" t="n">
-        <v>-10.7</v>
+        <v>-10.725</v>
       </c>
       <c r="L130" s="1" t="n"/>
       <c r="M130" s="1" t="n">
@@ -9625,10 +9625,10 @@
         <v>0</v>
       </c>
       <c r="O130" s="1" t="n">
-        <v>-9.659000000000001</v>
+        <v>-9.66</v>
       </c>
       <c r="P130" s="1" t="n">
-        <v>-9.225</v>
+        <v>-9.25</v>
       </c>
       <c r="Q130" s="1" t="n"/>
       <c r="R130" s="1" t="n"/>
@@ -10026,10 +10026,10 @@
         <v>61</v>
       </c>
       <c r="D136" s="1" t="n">
-        <v>-4.544</v>
+        <v>-4.55</v>
       </c>
       <c r="E136" s="1" t="n">
-        <v>-7.844</v>
+        <v>-7.9</v>
       </c>
       <c r="F136" s="1" t="n">
         <v>1.012</v>
@@ -10038,16 +10038,16 @@
         <v>1.089</v>
       </c>
       <c r="H136" s="1" t="n">
-        <v>-5.05</v>
+        <v>-5.056</v>
       </c>
       <c r="I136" s="1" t="n">
-        <v>-4.037999999999999</v>
+        <v>-4.044</v>
       </c>
       <c r="J136" s="1" t="n">
-        <v>-7.300000000000001</v>
+        <v>-7.356</v>
       </c>
       <c r="K136" s="1" t="n">
-        <v>-8.389000000000001</v>
+        <v>-8.445</v>
       </c>
       <c r="L136" s="1" t="n"/>
       <c r="M136" s="1" t="n">
@@ -10057,10 +10057,10 @@
         <v>0</v>
       </c>
       <c r="O136" s="1" t="n">
-        <v>-4.544</v>
+        <v>-4.55</v>
       </c>
       <c r="P136" s="1" t="n">
-        <v>-7.844</v>
+        <v>-7.9</v>
       </c>
       <c r="Q136" s="1" t="n"/>
       <c r="R136" s="1" t="n"/>
@@ -18780,10 +18780,10 @@
         <v>88</v>
       </c>
       <c r="D258" s="1" t="n">
-        <v>-4.218</v>
+        <v>-4.25</v>
       </c>
       <c r="E258" s="1" t="n">
-        <v>-1.62</v>
+        <v>-1.65</v>
       </c>
       <c r="F258" s="1" t="n">
         <v>0.4</v>
@@ -18792,16 +18792,16 @@
         <v>0.6</v>
       </c>
       <c r="H258" s="1" t="n">
-        <v>-4.418</v>
+        <v>-4.45</v>
       </c>
       <c r="I258" s="1" t="n">
-        <v>-4.018</v>
+        <v>-4.05</v>
       </c>
       <c r="J258" s="1" t="n">
-        <v>-1.32</v>
+        <v>-1.35</v>
       </c>
       <c r="K258" s="1" t="n">
-        <v>-1.92</v>
+        <v>-1.95</v>
       </c>
       <c r="L258" s="1" t="n"/>
       <c r="M258" s="1" t="n">
@@ -18811,10 +18811,10 @@
         <v>0</v>
       </c>
       <c r="O258" s="1" t="n">
-        <v>-4.218</v>
+        <v>-4.25</v>
       </c>
       <c r="P258" s="1" t="n">
-        <v>-1.62</v>
+        <v>-1.65</v>
       </c>
       <c r="Q258" s="1" t="n"/>
       <c r="R258" s="1" t="n"/>
@@ -18852,10 +18852,10 @@
         <v>88</v>
       </c>
       <c r="D259" s="1" t="n">
-        <v>-4.218</v>
+        <v>-4.25</v>
       </c>
       <c r="E259" s="1" t="n">
-        <v>-1.62</v>
+        <v>-1.65</v>
       </c>
       <c r="F259" s="1" t="n">
         <v>0.4</v>
@@ -18864,16 +18864,16 @@
         <v>0.6</v>
       </c>
       <c r="H259" s="1" t="n">
-        <v>-4.418</v>
+        <v>-4.45</v>
       </c>
       <c r="I259" s="1" t="n">
-        <v>-4.018</v>
+        <v>-4.05</v>
       </c>
       <c r="J259" s="1" t="n">
-        <v>-1.32</v>
+        <v>-1.35</v>
       </c>
       <c r="K259" s="1" t="n">
-        <v>-1.92</v>
+        <v>-1.95</v>
       </c>
       <c r="L259" s="1" t="n"/>
       <c r="M259" s="1" t="n">
@@ -18883,10 +18883,10 @@
         <v>0</v>
       </c>
       <c r="O259" s="1" t="n">
-        <v>-4.218</v>
+        <v>-4.25</v>
       </c>
       <c r="P259" s="1" t="n">
-        <v>-1.62</v>
+        <v>-1.65</v>
       </c>
       <c r="Q259" s="1" t="n"/>
       <c r="R259" s="1" t="n"/>
@@ -29502,7 +29502,7 @@
         <v>119</v>
       </c>
       <c r="D407" s="1" t="n">
-        <v>8.150499999999999</v>
+        <v>8.15</v>
       </c>
       <c r="E407" s="1" t="n">
         <v>-5</v>
@@ -29514,10 +29514,10 @@
         <v>2</v>
       </c>
       <c r="H407" s="1" t="n">
-        <v>7.150499999999999</v>
+        <v>7.15</v>
       </c>
       <c r="I407" s="1" t="n">
-        <v>9.150499999999999</v>
+        <v>9.15</v>
       </c>
       <c r="J407" s="1" t="n">
         <v>-4</v>
@@ -29533,7 +29533,7 @@
         <v>0</v>
       </c>
       <c r="O407" s="1" t="n">
-        <v>8.150499999999999</v>
+        <v>8.15</v>
       </c>
       <c r="P407" s="1" t="n">
         <v>-5</v>
@@ -29574,7 +29574,7 @@
         <v>119</v>
       </c>
       <c r="D408" s="1" t="n">
-        <v>8.150499999999999</v>
+        <v>8.15</v>
       </c>
       <c r="E408" s="1" t="n">
         <v>-5</v>
@@ -29586,10 +29586,10 @@
         <v>2</v>
       </c>
       <c r="H408" s="1" t="n">
-        <v>7.150499999999999</v>
+        <v>7.15</v>
       </c>
       <c r="I408" s="1" t="n">
-        <v>9.150499999999999</v>
+        <v>9.15</v>
       </c>
       <c r="J408" s="1" t="n">
         <v>-4</v>
@@ -29605,7 +29605,7 @@
         <v>0</v>
       </c>
       <c r="O408" s="1" t="n">
-        <v>8.150499999999999</v>
+        <v>8.15</v>
       </c>
       <c r="P408" s="1" t="n">
         <v>-5</v>
@@ -29646,7 +29646,7 @@
         <v>119</v>
       </c>
       <c r="D409" s="1" t="n">
-        <v>8.150499999999999</v>
+        <v>8.15</v>
       </c>
       <c r="E409" s="1" t="n">
         <v>-5</v>
@@ -29658,10 +29658,10 @@
         <v>2</v>
       </c>
       <c r="H409" s="1" t="n">
-        <v>7.150499999999999</v>
+        <v>7.15</v>
       </c>
       <c r="I409" s="1" t="n">
-        <v>9.150499999999999</v>
+        <v>9.15</v>
       </c>
       <c r="J409" s="1" t="n">
         <v>-4</v>
@@ -29677,7 +29677,7 @@
         <v>0</v>
       </c>
       <c r="O409" s="1" t="n">
-        <v>8.150499999999999</v>
+        <v>8.15</v>
       </c>
       <c r="P409" s="1" t="n">
         <v>-5</v>

--- a/masks/code/TKIDModule_spreadsheet_20200406_AW.xlsx
+++ b/masks/code/TKIDModule_spreadsheet_20200406_AW.xlsx
@@ -858,13 +858,13 @@
     <col customWidth="1" max="7" min="7" width="7"/>
     <col customWidth="1" max="8" min="8" width="22"/>
     <col customWidth="1" max="9" min="9" width="22"/>
-    <col customWidth="1" max="10" min="10" width="23"/>
+    <col customWidth="1" max="10" min="10" width="22"/>
     <col customWidth="1" max="11" min="11" width="23"/>
     <col customWidth="1" max="12" min="12" width="6"/>
     <col customWidth="1" max="13" min="13" width="8"/>
     <col customWidth="1" max="14" min="14" width="8"/>
     <col customWidth="1" max="15" min="15" width="21"/>
-    <col customWidth="1" max="16" min="16" width="22"/>
+    <col customWidth="1" max="16" min="16" width="21"/>
     <col customWidth="1" max="17" min="17" width="6"/>
     <col customWidth="1" max="18" min="18" width="6"/>
     <col customWidth="1" max="19" min="19" width="25"/>
@@ -1680,10 +1680,10 @@
         <v>34</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>-9</v>
+        <v>-9.59</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>5.55</v>
+        <v>6.15</v>
       </c>
       <c r="F20" s="1" t="n">
         <v>0.4</v>
@@ -1692,16 +1692,16 @@
         <v>2.8</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>-9.199999999999999</v>
+        <v>-9.789999999999999</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>-8.800000000000001</v>
+        <v>-9.390000000000001</v>
       </c>
       <c r="J20" s="1" t="n">
-        <v>6.949999999999999</v>
+        <v>7.550000000000001</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>4.15</v>
+        <v>4.75</v>
       </c>
       <c r="L20" s="1" t="n"/>
       <c r="M20" s="1" t="n">
@@ -1711,10 +1711,10 @@
         <v>0</v>
       </c>
       <c r="O20" s="1" t="n">
-        <v>-9</v>
+        <v>-9.59</v>
       </c>
       <c r="P20" s="1" t="n">
-        <v>5.55</v>
+        <v>6.15</v>
       </c>
       <c r="Q20" s="1" t="n"/>
       <c r="R20" s="1" t="n"/>
@@ -1752,10 +1752,10 @@
         <v>34</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>-9</v>
+        <v>-9.59</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>5.55</v>
+        <v>6.15</v>
       </c>
       <c r="F21" s="1" t="n">
         <v>0.4</v>
@@ -1764,16 +1764,16 @@
         <v>2.8</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>-9.199999999999999</v>
+        <v>-9.789999999999999</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>-8.800000000000001</v>
+        <v>-9.390000000000001</v>
       </c>
       <c r="J21" s="1" t="n">
-        <v>6.949999999999999</v>
+        <v>7.550000000000001</v>
       </c>
       <c r="K21" s="1" t="n">
-        <v>4.15</v>
+        <v>4.75</v>
       </c>
       <c r="L21" s="1" t="n"/>
       <c r="M21" s="1" t="n">
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="O21" s="1" t="n">
-        <v>-9</v>
+        <v>-9.59</v>
       </c>
       <c r="P21" s="1" t="n">
-        <v>5.55</v>
+        <v>6.15</v>
       </c>
       <c r="Q21" s="1" t="n"/>
       <c r="R21" s="1" t="n"/>
@@ -2400,10 +2400,10 @@
         <v>37</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>8.550000000000001</v>
+        <v>-7.34</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>-8.574999999999999</v>
+        <v>-9.775</v>
       </c>
       <c r="F30" s="1" t="n">
         <v>1</v>
@@ -2412,16 +2412,16 @@
         <v>1.45</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>8.050000000000001</v>
+        <v>-7.84</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>9.050000000000001</v>
+        <v>-6.84</v>
       </c>
       <c r="J30" s="1" t="n">
-        <v>-7.85</v>
+        <v>-9.050000000000001</v>
       </c>
       <c r="K30" s="1" t="n">
-        <v>-9.299999999999999</v>
+        <v>-10.5</v>
       </c>
       <c r="L30" s="1" t="n"/>
       <c r="M30" s="1" t="n">
@@ -2431,10 +2431,10 @@
         <v>0</v>
       </c>
       <c r="O30" s="1" t="n">
-        <v>8.550000000000001</v>
+        <v>-7.34</v>
       </c>
       <c r="P30" s="1" t="n">
-        <v>-8.574999999999999</v>
+        <v>-9.775</v>
       </c>
       <c r="Q30" s="1" t="n"/>
       <c r="R30" s="1" t="n"/>
@@ -2472,10 +2472,10 @@
         <v>37</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>8.550000000000001</v>
+        <v>-7.34</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>-8.574999999999999</v>
+        <v>-9.775</v>
       </c>
       <c r="F31" s="1" t="n">
         <v>1</v>
@@ -2484,16 +2484,16 @@
         <v>1.45</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>8.050000000000001</v>
+        <v>-7.84</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>9.050000000000001</v>
+        <v>-6.84</v>
       </c>
       <c r="J31" s="1" t="n">
-        <v>-7.85</v>
+        <v>-9.050000000000001</v>
       </c>
       <c r="K31" s="1" t="n">
-        <v>-9.299999999999999</v>
+        <v>-10.5</v>
       </c>
       <c r="L31" s="1" t="n"/>
       <c r="M31" s="1" t="n">
@@ -2503,10 +2503,10 @@
         <v>0</v>
       </c>
       <c r="O31" s="1" t="n">
-        <v>8.550000000000001</v>
+        <v>-7.34</v>
       </c>
       <c r="P31" s="1" t="n">
-        <v>-8.574999999999999</v>
+        <v>-9.775</v>
       </c>
       <c r="Q31" s="1" t="n"/>
       <c r="R31" s="1" t="n"/>
@@ -2544,28 +2544,28 @@
         <v>38</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>0</v>
+        <v>-8.390000000000001</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>0</v>
+        <v>-9.775</v>
       </c>
       <c r="F32" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>0</v>
+        <v>-8.890000000000001</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>0</v>
+        <v>-7.890000000000001</v>
       </c>
       <c r="J32" s="1" t="n">
-        <v>0</v>
+        <v>-9.050000000000001</v>
       </c>
       <c r="K32" s="1" t="n">
-        <v>0</v>
+        <v>-10.5</v>
       </c>
       <c r="L32" s="1" t="n"/>
       <c r="M32" s="1" t="n">
@@ -2575,14 +2575,16 @@
         <v>0</v>
       </c>
       <c r="O32" s="1" t="n">
-        <v>0</v>
+        <v>-8.390000000000001</v>
       </c>
       <c r="P32" s="1" t="n">
-        <v>0</v>
+        <v>-9.775</v>
       </c>
       <c r="Q32" s="1" t="n"/>
       <c r="R32" s="1" t="n"/>
-      <c r="S32" s="1" t="s"/>
+      <c r="S32" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="T32" s="1" t="n">
         <v>1</v>
       </c>
@@ -2593,7 +2595,7 @@
         <v>-35.26</v>
       </c>
       <c r="W32" s="1" t="n">
-        <v>-0.28</v>
+        <v>-0.455</v>
       </c>
       <c r="X32" s="1" t="n">
         <v>0</v>
@@ -2614,28 +2616,28 @@
         <v>38</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>0</v>
+        <v>-8.390000000000001</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>0</v>
+        <v>-9.775</v>
       </c>
       <c r="F33" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>0</v>
+        <v>-8.890000000000001</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>0</v>
+        <v>-7.890000000000001</v>
       </c>
       <c r="J33" s="1" t="n">
-        <v>0</v>
+        <v>-9.050000000000001</v>
       </c>
       <c r="K33" s="1" t="n">
-        <v>0</v>
+        <v>-10.5</v>
       </c>
       <c r="L33" s="1" t="n"/>
       <c r="M33" s="1" t="n">
@@ -2645,14 +2647,16 @@
         <v>0</v>
       </c>
       <c r="O33" s="1" t="n">
-        <v>0</v>
+        <v>-8.390000000000001</v>
       </c>
       <c r="P33" s="1" t="n">
-        <v>0</v>
+        <v>-9.775</v>
       </c>
       <c r="Q33" s="1" t="n"/>
       <c r="R33" s="1" t="n"/>
-      <c r="S33" s="1" t="s"/>
+      <c r="S33" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="T33" s="1" t="n">
         <v>1</v>
       </c>
@@ -2663,7 +2667,7 @@
         <v>-35.26</v>
       </c>
       <c r="W33" s="1" t="n">
-        <v>28.95</v>
+        <v>28.775</v>
       </c>
       <c r="X33" s="1" t="n">
         <v>0</v>
@@ -3909,7 +3913,7 @@
         <v>-8.1</v>
       </c>
       <c r="E51" s="1" t="n">
-        <v>-4.5</v>
+        <v>-3.5</v>
       </c>
       <c r="F51" s="1" t="n">
         <v>0.4</v>
@@ -3924,10 +3928,10 @@
         <v>-7.899999999999999</v>
       </c>
       <c r="J51" s="1" t="n">
-        <v>-0.04999999999999982</v>
+        <v>0.9500000000000002</v>
       </c>
       <c r="K51" s="1" t="n">
-        <v>-8.949999999999999</v>
+        <v>-7.95</v>
       </c>
       <c r="L51" s="1" t="n"/>
       <c r="M51" s="1" t="n">
@@ -3940,7 +3944,7 @@
         <v>-8.1</v>
       </c>
       <c r="P51" s="1" t="n">
-        <v>-4.5</v>
+        <v>-3.5</v>
       </c>
       <c r="Q51" s="1" t="n"/>
       <c r="R51" s="1" t="n"/>
@@ -9450,10 +9454,10 @@
         <v>58</v>
       </c>
       <c r="D128" s="1" t="n">
-        <v>-10.2</v>
+        <v>-10.34</v>
       </c>
       <c r="E128" s="1" t="n">
-        <v>-6.45</v>
+        <v>-5.45</v>
       </c>
       <c r="F128" s="1" t="n">
         <v>1</v>
@@ -9462,16 +9466,16 @@
         <v>2.4</v>
       </c>
       <c r="H128" s="1" t="n">
-        <v>-10.7</v>
+        <v>-10.84</v>
       </c>
       <c r="I128" s="1" t="n">
-        <v>-9.699999999999999</v>
+        <v>-9.84</v>
       </c>
       <c r="J128" s="1" t="n">
-        <v>-5.25</v>
+        <v>-4.25</v>
       </c>
       <c r="K128" s="1" t="n">
-        <v>-7.65</v>
+        <v>-6.65</v>
       </c>
       <c r="L128" s="1" t="n"/>
       <c r="M128" s="1" t="n">
@@ -9481,10 +9485,10 @@
         <v>0</v>
       </c>
       <c r="O128" s="1" t="n">
-        <v>-10.2</v>
+        <v>-10.34</v>
       </c>
       <c r="P128" s="1" t="n">
-        <v>-6.45</v>
+        <v>-5.45</v>
       </c>
       <c r="Q128" s="1" t="n"/>
       <c r="R128" s="1" t="n"/>
@@ -9522,10 +9526,10 @@
         <v>58</v>
       </c>
       <c r="D129" s="1" t="n">
-        <v>-10.2</v>
+        <v>-10.34</v>
       </c>
       <c r="E129" s="1" t="n">
-        <v>-6.45</v>
+        <v>-5.45</v>
       </c>
       <c r="F129" s="1" t="n">
         <v>1</v>
@@ -9534,16 +9538,16 @@
         <v>2.4</v>
       </c>
       <c r="H129" s="1" t="n">
-        <v>-10.7</v>
+        <v>-10.84</v>
       </c>
       <c r="I129" s="1" t="n">
-        <v>-9.699999999999999</v>
+        <v>-9.84</v>
       </c>
       <c r="J129" s="1" t="n">
-        <v>-5.25</v>
+        <v>-4.25</v>
       </c>
       <c r="K129" s="1" t="n">
-        <v>-7.65</v>
+        <v>-6.65</v>
       </c>
       <c r="L129" s="1" t="n"/>
       <c r="M129" s="1" t="n">
@@ -9553,10 +9557,10 @@
         <v>0</v>
       </c>
       <c r="O129" s="1" t="n">
-        <v>-10.2</v>
+        <v>-10.34</v>
       </c>
       <c r="P129" s="1" t="n">
-        <v>-6.45</v>
+        <v>-5.45</v>
       </c>
       <c r="Q129" s="1" t="n"/>
       <c r="R129" s="1" t="n"/>
@@ -9594,10 +9598,10 @@
         <v>59</v>
       </c>
       <c r="D130" s="1" t="n">
-        <v>-9.66</v>
+        <v>-5.48</v>
       </c>
       <c r="E130" s="1" t="n">
-        <v>-9.25</v>
+        <v>10.275</v>
       </c>
       <c r="F130" s="1" t="n">
         <v>1.44</v>
@@ -9606,16 +9610,16 @@
         <v>2.95</v>
       </c>
       <c r="H130" s="1" t="n">
-        <v>-10.38</v>
+        <v>-6.2</v>
       </c>
       <c r="I130" s="1" t="n">
-        <v>-8.94</v>
+        <v>-4.760000000000001</v>
       </c>
       <c r="J130" s="1" t="n">
-        <v>-7.775</v>
+        <v>11.75</v>
       </c>
       <c r="K130" s="1" t="n">
-        <v>-10.725</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L130" s="1" t="n"/>
       <c r="M130" s="1" t="n">
@@ -9625,10 +9629,10 @@
         <v>0</v>
       </c>
       <c r="O130" s="1" t="n">
-        <v>-9.66</v>
+        <v>-5.48</v>
       </c>
       <c r="P130" s="1" t="n">
-        <v>-9.25</v>
+        <v>10.275</v>
       </c>
       <c r="Q130" s="1" t="n"/>
       <c r="R130" s="1" t="n"/>
@@ -10098,10 +10102,10 @@
         <v>63</v>
       </c>
       <c r="D137" s="1" t="n">
-        <v>-10.2</v>
+        <v>-10.34</v>
       </c>
       <c r="E137" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" s="1" t="n">
         <v>1</v>
@@ -10110,16 +10114,16 @@
         <v>10.4</v>
       </c>
       <c r="H137" s="1" t="n">
-        <v>-10.7</v>
+        <v>-10.84</v>
       </c>
       <c r="I137" s="1" t="n">
-        <v>-9.699999999999999</v>
+        <v>-9.84</v>
       </c>
       <c r="J137" s="1" t="n">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="K137" s="1" t="n">
-        <v>-5.2</v>
+        <v>-4.2</v>
       </c>
       <c r="L137" s="1" t="n"/>
       <c r="M137" s="1" t="n">
@@ -10129,10 +10133,10 @@
         <v>0</v>
       </c>
       <c r="O137" s="1" t="n">
-        <v>-10.2</v>
+        <v>-10.34</v>
       </c>
       <c r="P137" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q137" s="1" t="n"/>
       <c r="R137" s="1" t="n"/>
@@ -12330,7 +12334,7 @@
         <v>70</v>
       </c>
       <c r="D168" s="1" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="E168" s="1" t="n">
         <v>-8.75</v>
@@ -12342,10 +12346,10 @@
         <v>0.4</v>
       </c>
       <c r="H168" s="1" t="n">
-        <v>-7.4</v>
+        <v>-5.7</v>
       </c>
       <c r="I168" s="1" t="n">
-        <v>8</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="J168" s="1" t="n">
         <v>-8.550000000000001</v>
@@ -12361,7 +12365,7 @@
         <v>0</v>
       </c>
       <c r="O168" s="1" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="P168" s="1" t="n">
         <v>-8.75</v>
@@ -12402,10 +12406,10 @@
         <v>71</v>
       </c>
       <c r="D169" s="1" t="n">
-        <v>-9.449999999999999</v>
+        <v>-9.59</v>
       </c>
       <c r="E169" s="1" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F169" s="1" t="n">
         <v>0.4</v>
@@ -12414,16 +12418,16 @@
         <v>15.4</v>
       </c>
       <c r="H169" s="1" t="n">
-        <v>-9.649999999999999</v>
+        <v>-9.789999999999999</v>
       </c>
       <c r="I169" s="1" t="n">
-        <v>-9.25</v>
+        <v>-9.390000000000001</v>
       </c>
       <c r="J169" s="1" t="n">
-        <v>7.7</v>
+        <v>4.7</v>
       </c>
       <c r="K169" s="1" t="n">
-        <v>-7.7</v>
+        <v>-10.7</v>
       </c>
       <c r="L169" s="1" t="n"/>
       <c r="M169" s="1" t="n">
@@ -12433,10 +12437,10 @@
         <v>0</v>
       </c>
       <c r="O169" s="1" t="n">
-        <v>-9.449999999999999</v>
+        <v>-9.59</v>
       </c>
       <c r="P169" s="1" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="Q169" s="1" t="n"/>
       <c r="R169" s="1" t="n"/>
@@ -14607,7 +14611,7 @@
         <v>-7.75</v>
       </c>
       <c r="E200" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F200" s="1" t="n">
         <v>1.1</v>
@@ -14622,10 +14626,10 @@
         <v>-7.2</v>
       </c>
       <c r="J200" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K200" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L200" s="1" t="n"/>
       <c r="M200" s="1" t="n">
@@ -14638,7 +14642,7 @@
         <v>-11.95</v>
       </c>
       <c r="P200" s="1" t="n">
-        <v>-0.1139999999999999</v>
+        <v>0.8860000000000001</v>
       </c>
       <c r="Q200" s="1" t="n"/>
       <c r="R200" s="1" t="n"/>
@@ -14679,7 +14683,7 @@
         <v>-7.75</v>
       </c>
       <c r="E201" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F201" s="1" t="n">
         <v>1.1</v>
@@ -14694,10 +14698,10 @@
         <v>-7.2</v>
       </c>
       <c r="J201" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K201" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L201" s="1" t="n"/>
       <c r="M201" s="1" t="n">
@@ -14710,7 +14714,7 @@
         <v>-3.55</v>
       </c>
       <c r="P201" s="1" t="n">
-        <v>-0.1139999999999999</v>
+        <v>0.8860000000000001</v>
       </c>
       <c r="Q201" s="1" t="n"/>
       <c r="R201" s="1" t="n"/>
@@ -14751,7 +14755,7 @@
         <v>-7.75</v>
       </c>
       <c r="E202" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F202" s="1" t="n">
         <v>1.1</v>
@@ -14766,10 +14770,10 @@
         <v>-7.2</v>
       </c>
       <c r="J202" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K202" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L202" s="1" t="n"/>
       <c r="M202" s="1" t="n">
@@ -14782,7 +14786,7 @@
         <v>-7.75</v>
       </c>
       <c r="P202" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q202" s="1" t="n"/>
       <c r="R202" s="1" t="n"/>
@@ -14823,7 +14827,7 @@
         <v>-7.75</v>
       </c>
       <c r="E203" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F203" s="1" t="n">
         <v>1.1</v>
@@ -14838,10 +14842,10 @@
         <v>-7.2</v>
       </c>
       <c r="J203" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K203" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L203" s="1" t="n"/>
       <c r="M203" s="1" t="n">
@@ -14854,7 +14858,7 @@
         <v>-11.95</v>
       </c>
       <c r="P203" s="1" t="n">
-        <v>4.112</v>
+        <v>5.112</v>
       </c>
       <c r="Q203" s="1" t="n"/>
       <c r="R203" s="1" t="n"/>
@@ -14895,7 +14899,7 @@
         <v>-7.75</v>
       </c>
       <c r="E204" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F204" s="1" t="n">
         <v>1.1</v>
@@ -14910,10 +14914,10 @@
         <v>-7.2</v>
       </c>
       <c r="J204" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K204" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L204" s="1" t="n"/>
       <c r="M204" s="1" t="n">
@@ -14926,7 +14930,7 @@
         <v>-3.55</v>
       </c>
       <c r="P204" s="1" t="n">
-        <v>4.112</v>
+        <v>5.112</v>
       </c>
       <c r="Q204" s="1" t="n"/>
       <c r="R204" s="1" t="n"/>
@@ -14967,7 +14971,7 @@
         <v>-7.75</v>
       </c>
       <c r="E205" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F205" s="1" t="n">
         <v>1.1</v>
@@ -14982,10 +14986,10 @@
         <v>-7.2</v>
       </c>
       <c r="J205" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K205" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L205" s="1" t="n"/>
       <c r="M205" s="1" t="n">
@@ -14998,7 +15002,7 @@
         <v>-11.95</v>
       </c>
       <c r="P205" s="1" t="n">
-        <v>4.112</v>
+        <v>5.112</v>
       </c>
       <c r="Q205" s="1" t="n"/>
       <c r="R205" s="1" t="n"/>
@@ -15039,7 +15043,7 @@
         <v>-7.75</v>
       </c>
       <c r="E206" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F206" s="1" t="n">
         <v>1.1</v>
@@ -15054,10 +15058,10 @@
         <v>-7.2</v>
       </c>
       <c r="J206" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K206" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L206" s="1" t="n"/>
       <c r="M206" s="1" t="n">
@@ -15070,7 +15074,7 @@
         <v>-3.55</v>
       </c>
       <c r="P206" s="1" t="n">
-        <v>4.112</v>
+        <v>5.112</v>
       </c>
       <c r="Q206" s="1" t="n"/>
       <c r="R206" s="1" t="n"/>
@@ -15111,7 +15115,7 @@
         <v>-7.75</v>
       </c>
       <c r="E207" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F207" s="1" t="n">
         <v>1.1</v>
@@ -15126,10 +15130,10 @@
         <v>-7.2</v>
       </c>
       <c r="J207" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K207" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L207" s="1" t="n"/>
       <c r="M207" s="1" t="n">
@@ -15142,7 +15146,7 @@
         <v>-7.75</v>
       </c>
       <c r="P207" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q207" s="1" t="n"/>
       <c r="R207" s="1" t="n"/>
@@ -15183,7 +15187,7 @@
         <v>-7.75</v>
       </c>
       <c r="E208" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F208" s="1" t="n">
         <v>1.1</v>
@@ -15198,10 +15202,10 @@
         <v>-7.2</v>
       </c>
       <c r="J208" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K208" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L208" s="1" t="n"/>
       <c r="M208" s="1" t="n">
@@ -15214,7 +15218,7 @@
         <v>-11.95</v>
       </c>
       <c r="P208" s="1" t="n">
-        <v>-0.1139999999999999</v>
+        <v>0.8860000000000001</v>
       </c>
       <c r="Q208" s="1" t="n"/>
       <c r="R208" s="1" t="n"/>
@@ -15255,7 +15259,7 @@
         <v>-7.75</v>
       </c>
       <c r="E209" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F209" s="1" t="n">
         <v>1.1</v>
@@ -15270,10 +15274,10 @@
         <v>-7.2</v>
       </c>
       <c r="J209" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K209" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L209" s="1" t="n"/>
       <c r="M209" s="1" t="n">
@@ -15286,7 +15290,7 @@
         <v>-3.55</v>
       </c>
       <c r="P209" s="1" t="n">
-        <v>4.112</v>
+        <v>5.112</v>
       </c>
       <c r="Q209" s="1" t="n"/>
       <c r="R209" s="1" t="n"/>
@@ -15327,7 +15331,7 @@
         <v>-7.75</v>
       </c>
       <c r="E210" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F210" s="1" t="n">
         <v>1.1</v>
@@ -15342,10 +15346,10 @@
         <v>-7.2</v>
       </c>
       <c r="J210" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K210" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L210" s="1" t="n"/>
       <c r="M210" s="1" t="n">
@@ -15358,7 +15362,7 @@
         <v>-11.95</v>
       </c>
       <c r="P210" s="1" t="n">
-        <v>-0.1139999999999999</v>
+        <v>0.8860000000000001</v>
       </c>
       <c r="Q210" s="1" t="n"/>
       <c r="R210" s="1" t="n"/>
@@ -15399,7 +15403,7 @@
         <v>-7.75</v>
       </c>
       <c r="E211" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F211" s="1" t="n">
         <v>1.1</v>
@@ -15414,10 +15418,10 @@
         <v>-7.2</v>
       </c>
       <c r="J211" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K211" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L211" s="1" t="n"/>
       <c r="M211" s="1" t="n">
@@ -15430,7 +15434,7 @@
         <v>-3.55</v>
       </c>
       <c r="P211" s="1" t="n">
-        <v>-0.1139999999999999</v>
+        <v>0.8860000000000001</v>
       </c>
       <c r="Q211" s="1" t="n"/>
       <c r="R211" s="1" t="n"/>
@@ -15471,7 +15475,7 @@
         <v>-7.75</v>
       </c>
       <c r="E212" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F212" s="1" t="n">
         <v>1.1</v>
@@ -15486,10 +15490,10 @@
         <v>-7.2</v>
       </c>
       <c r="J212" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K212" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L212" s="1" t="n"/>
       <c r="M212" s="1" t="n">
@@ -15502,7 +15506,7 @@
         <v>-7.75</v>
       </c>
       <c r="P212" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q212" s="1" t="n"/>
       <c r="R212" s="1" t="n"/>
@@ -15543,7 +15547,7 @@
         <v>-7.75</v>
       </c>
       <c r="E213" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F213" s="1" t="n">
         <v>1.1</v>
@@ -15558,10 +15562,10 @@
         <v>-7.2</v>
       </c>
       <c r="J213" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K213" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L213" s="1" t="n"/>
       <c r="M213" s="1" t="n">
@@ -15574,7 +15578,7 @@
         <v>-11.95</v>
       </c>
       <c r="P213" s="1" t="n">
-        <v>-0.1139999999999999</v>
+        <v>0.8860000000000001</v>
       </c>
       <c r="Q213" s="1" t="n"/>
       <c r="R213" s="1" t="n"/>
@@ -15615,7 +15619,7 @@
         <v>-7.75</v>
       </c>
       <c r="E214" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F214" s="1" t="n">
         <v>1.1</v>
@@ -15630,10 +15634,10 @@
         <v>-7.2</v>
       </c>
       <c r="J214" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K214" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L214" s="1" t="n"/>
       <c r="M214" s="1" t="n">
@@ -15646,7 +15650,7 @@
         <v>-3.55</v>
       </c>
       <c r="P214" s="1" t="n">
-        <v>-0.1139999999999999</v>
+        <v>0.8860000000000001</v>
       </c>
       <c r="Q214" s="1" t="n"/>
       <c r="R214" s="1" t="n"/>
@@ -15687,7 +15691,7 @@
         <v>-6.85</v>
       </c>
       <c r="E215" s="1" t="n">
-        <v>6.65</v>
+        <v>7.45</v>
       </c>
       <c r="F215" s="1" t="n">
         <v>1.2</v>
@@ -15702,10 +15706,10 @@
         <v>-6.25</v>
       </c>
       <c r="J215" s="1" t="n">
-        <v>8.75</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="K215" s="1" t="n">
-        <v>4.550000000000001</v>
+        <v>5.35</v>
       </c>
       <c r="L215" s="1" t="n"/>
       <c r="M215" s="1" t="n">
@@ -15718,7 +15722,7 @@
         <v>-11.05</v>
       </c>
       <c r="P215" s="1" t="n">
-        <v>4.536</v>
+        <v>5.336</v>
       </c>
       <c r="Q215" s="1" t="n"/>
       <c r="R215" s="1" t="n"/>
@@ -15759,7 +15763,7 @@
         <v>-6.85</v>
       </c>
       <c r="E216" s="1" t="n">
-        <v>6.65</v>
+        <v>7.45</v>
       </c>
       <c r="F216" s="1" t="n">
         <v>1.2</v>
@@ -15774,10 +15778,10 @@
         <v>-6.25</v>
       </c>
       <c r="J216" s="1" t="n">
-        <v>8.75</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="K216" s="1" t="n">
-        <v>4.550000000000001</v>
+        <v>5.35</v>
       </c>
       <c r="L216" s="1" t="n"/>
       <c r="M216" s="1" t="n">
@@ -15790,7 +15794,7 @@
         <v>-2.649999999999999</v>
       </c>
       <c r="P216" s="1" t="n">
-        <v>4.536</v>
+        <v>5.336</v>
       </c>
       <c r="Q216" s="1" t="n"/>
       <c r="R216" s="1" t="n"/>
@@ -15831,7 +15835,7 @@
         <v>-6.85</v>
       </c>
       <c r="E217" s="1" t="n">
-        <v>6.65</v>
+        <v>7.45</v>
       </c>
       <c r="F217" s="1" t="n">
         <v>1.2</v>
@@ -15846,10 +15850,10 @@
         <v>-6.25</v>
       </c>
       <c r="J217" s="1" t="n">
-        <v>8.75</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="K217" s="1" t="n">
-        <v>4.550000000000001</v>
+        <v>5.35</v>
       </c>
       <c r="L217" s="1" t="n"/>
       <c r="M217" s="1" t="n">
@@ -15862,7 +15866,7 @@
         <v>-6.85</v>
       </c>
       <c r="P217" s="1" t="n">
-        <v>6.65</v>
+        <v>7.45</v>
       </c>
       <c r="Q217" s="1" t="n"/>
       <c r="R217" s="1" t="n"/>
@@ -15903,7 +15907,7 @@
         <v>-6.85</v>
       </c>
       <c r="E218" s="1" t="n">
-        <v>6.65</v>
+        <v>7.45</v>
       </c>
       <c r="F218" s="1" t="n">
         <v>1.2</v>
@@ -15918,10 +15922,10 @@
         <v>-6.25</v>
       </c>
       <c r="J218" s="1" t="n">
-        <v>8.75</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="K218" s="1" t="n">
-        <v>4.550000000000001</v>
+        <v>5.35</v>
       </c>
       <c r="L218" s="1" t="n"/>
       <c r="M218" s="1" t="n">
@@ -15934,7 +15938,7 @@
         <v>-11.05</v>
       </c>
       <c r="P218" s="1" t="n">
-        <v>8.762</v>
+        <v>9.562000000000001</v>
       </c>
       <c r="Q218" s="1" t="n"/>
       <c r="R218" s="1" t="n"/>
@@ -15975,7 +15979,7 @@
         <v>-6.85</v>
       </c>
       <c r="E219" s="1" t="n">
-        <v>6.65</v>
+        <v>7.45</v>
       </c>
       <c r="F219" s="1" t="n">
         <v>1.2</v>
@@ -15990,10 +15994,10 @@
         <v>-6.25</v>
       </c>
       <c r="J219" s="1" t="n">
-        <v>8.75</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="K219" s="1" t="n">
-        <v>4.550000000000001</v>
+        <v>5.35</v>
       </c>
       <c r="L219" s="1" t="n"/>
       <c r="M219" s="1" t="n">
@@ -16006,7 +16010,7 @@
         <v>-2.649999999999999</v>
       </c>
       <c r="P219" s="1" t="n">
-        <v>8.762</v>
+        <v>9.562000000000001</v>
       </c>
       <c r="Q219" s="1" t="n"/>
       <c r="R219" s="1" t="n"/>
@@ -16047,7 +16051,7 @@
         <v>-6.85</v>
       </c>
       <c r="E220" s="1" t="n">
-        <v>6.65</v>
+        <v>7.45</v>
       </c>
       <c r="F220" s="1" t="n">
         <v>1.2</v>
@@ -16062,10 +16066,10 @@
         <v>-6.25</v>
       </c>
       <c r="J220" s="1" t="n">
-        <v>8.75</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="K220" s="1" t="n">
-        <v>4.550000000000001</v>
+        <v>5.35</v>
       </c>
       <c r="L220" s="1" t="n"/>
       <c r="M220" s="1" t="n">
@@ -16078,7 +16082,7 @@
         <v>-11.05</v>
       </c>
       <c r="P220" s="1" t="n">
-        <v>8.762</v>
+        <v>9.562000000000001</v>
       </c>
       <c r="Q220" s="1" t="n"/>
       <c r="R220" s="1" t="n"/>
@@ -16119,7 +16123,7 @@
         <v>-6.85</v>
       </c>
       <c r="E221" s="1" t="n">
-        <v>6.65</v>
+        <v>7.45</v>
       </c>
       <c r="F221" s="1" t="n">
         <v>1.2</v>
@@ -16134,10 +16138,10 @@
         <v>-6.25</v>
       </c>
       <c r="J221" s="1" t="n">
-        <v>8.75</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="K221" s="1" t="n">
-        <v>4.550000000000001</v>
+        <v>5.35</v>
       </c>
       <c r="L221" s="1" t="n"/>
       <c r="M221" s="1" t="n">
@@ -16150,7 +16154,7 @@
         <v>-2.649999999999999</v>
       </c>
       <c r="P221" s="1" t="n">
-        <v>8.762</v>
+        <v>9.562000000000001</v>
       </c>
       <c r="Q221" s="1" t="n"/>
       <c r="R221" s="1" t="n"/>
@@ -16191,7 +16195,7 @@
         <v>-6.85</v>
       </c>
       <c r="E222" s="1" t="n">
-        <v>6.65</v>
+        <v>7.45</v>
       </c>
       <c r="F222" s="1" t="n">
         <v>1.2</v>
@@ -16206,10 +16210,10 @@
         <v>-6.25</v>
       </c>
       <c r="J222" s="1" t="n">
-        <v>8.75</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="K222" s="1" t="n">
-        <v>4.550000000000001</v>
+        <v>5.35</v>
       </c>
       <c r="L222" s="1" t="n"/>
       <c r="M222" s="1" t="n">
@@ -16222,7 +16226,7 @@
         <v>-6.85</v>
       </c>
       <c r="P222" s="1" t="n">
-        <v>6.65</v>
+        <v>7.45</v>
       </c>
       <c r="Q222" s="1" t="n"/>
       <c r="R222" s="1" t="n"/>
@@ -16263,7 +16267,7 @@
         <v>-6.85</v>
       </c>
       <c r="E223" s="1" t="n">
-        <v>6.65</v>
+        <v>7.45</v>
       </c>
       <c r="F223" s="1" t="n">
         <v>1.2</v>
@@ -16278,10 +16282,10 @@
         <v>-6.25</v>
       </c>
       <c r="J223" s="1" t="n">
-        <v>8.75</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="K223" s="1" t="n">
-        <v>4.550000000000001</v>
+        <v>5.35</v>
       </c>
       <c r="L223" s="1" t="n"/>
       <c r="M223" s="1" t="n">
@@ -16294,7 +16298,7 @@
         <v>-11.05</v>
       </c>
       <c r="P223" s="1" t="n">
-        <v>4.536</v>
+        <v>5.336</v>
       </c>
       <c r="Q223" s="1" t="n"/>
       <c r="R223" s="1" t="n"/>
@@ -16335,7 +16339,7 @@
         <v>-6.85</v>
       </c>
       <c r="E224" s="1" t="n">
-        <v>6.65</v>
+        <v>7.45</v>
       </c>
       <c r="F224" s="1" t="n">
         <v>1.2</v>
@@ -16350,10 +16354,10 @@
         <v>-6.25</v>
       </c>
       <c r="J224" s="1" t="n">
-        <v>8.75</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="K224" s="1" t="n">
-        <v>4.550000000000001</v>
+        <v>5.35</v>
       </c>
       <c r="L224" s="1" t="n"/>
       <c r="M224" s="1" t="n">
@@ -16366,7 +16370,7 @@
         <v>-2.649999999999999</v>
       </c>
       <c r="P224" s="1" t="n">
-        <v>8.762</v>
+        <v>9.562000000000001</v>
       </c>
       <c r="Q224" s="1" t="n"/>
       <c r="R224" s="1" t="n"/>
@@ -16407,7 +16411,7 @@
         <v>-6.85</v>
       </c>
       <c r="E225" s="1" t="n">
-        <v>6.65</v>
+        <v>7.45</v>
       </c>
       <c r="F225" s="1" t="n">
         <v>1.2</v>
@@ -16422,10 +16426,10 @@
         <v>-6.25</v>
       </c>
       <c r="J225" s="1" t="n">
-        <v>8.75</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="K225" s="1" t="n">
-        <v>4.550000000000001</v>
+        <v>5.35</v>
       </c>
       <c r="L225" s="1" t="n"/>
       <c r="M225" s="1" t="n">
@@ -16438,7 +16442,7 @@
         <v>-11.05</v>
       </c>
       <c r="P225" s="1" t="n">
-        <v>4.536</v>
+        <v>5.336</v>
       </c>
       <c r="Q225" s="1" t="n"/>
       <c r="R225" s="1" t="n"/>
@@ -16479,7 +16483,7 @@
         <v>-6.85</v>
       </c>
       <c r="E226" s="1" t="n">
-        <v>6.65</v>
+        <v>7.45</v>
       </c>
       <c r="F226" s="1" t="n">
         <v>1.2</v>
@@ -16494,10 +16498,10 @@
         <v>-6.25</v>
       </c>
       <c r="J226" s="1" t="n">
-        <v>8.75</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="K226" s="1" t="n">
-        <v>4.550000000000001</v>
+        <v>5.35</v>
       </c>
       <c r="L226" s="1" t="n"/>
       <c r="M226" s="1" t="n">
@@ -16510,7 +16514,7 @@
         <v>-2.649999999999999</v>
       </c>
       <c r="P226" s="1" t="n">
-        <v>4.536</v>
+        <v>5.336</v>
       </c>
       <c r="Q226" s="1" t="n"/>
       <c r="R226" s="1" t="n"/>
@@ -16551,7 +16555,7 @@
         <v>-6.85</v>
       </c>
       <c r="E227" s="1" t="n">
-        <v>6.65</v>
+        <v>7.45</v>
       </c>
       <c r="F227" s="1" t="n">
         <v>1.2</v>
@@ -16566,10 +16570,10 @@
         <v>-6.25</v>
       </c>
       <c r="J227" s="1" t="n">
-        <v>8.75</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="K227" s="1" t="n">
-        <v>4.550000000000001</v>
+        <v>5.35</v>
       </c>
       <c r="L227" s="1" t="n"/>
       <c r="M227" s="1" t="n">
@@ -16582,7 +16586,7 @@
         <v>-6.85</v>
       </c>
       <c r="P227" s="1" t="n">
-        <v>6.65</v>
+        <v>7.45</v>
       </c>
       <c r="Q227" s="1" t="n"/>
       <c r="R227" s="1" t="n"/>
@@ -16623,7 +16627,7 @@
         <v>-6.85</v>
       </c>
       <c r="E228" s="1" t="n">
-        <v>6.65</v>
+        <v>7.45</v>
       </c>
       <c r="F228" s="1" t="n">
         <v>1.2</v>
@@ -16638,10 +16642,10 @@
         <v>-6.25</v>
       </c>
       <c r="J228" s="1" t="n">
-        <v>8.75</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="K228" s="1" t="n">
-        <v>4.550000000000001</v>
+        <v>5.35</v>
       </c>
       <c r="L228" s="1" t="n"/>
       <c r="M228" s="1" t="n">
@@ -16654,7 +16658,7 @@
         <v>-11.05</v>
       </c>
       <c r="P228" s="1" t="n">
-        <v>4.536</v>
+        <v>5.336</v>
       </c>
       <c r="Q228" s="1" t="n"/>
       <c r="R228" s="1" t="n"/>
@@ -16695,7 +16699,7 @@
         <v>-6.85</v>
       </c>
       <c r="E229" s="1" t="n">
-        <v>6.65</v>
+        <v>7.45</v>
       </c>
       <c r="F229" s="1" t="n">
         <v>1.2</v>
@@ -16710,10 +16714,10 @@
         <v>-6.25</v>
       </c>
       <c r="J229" s="1" t="n">
-        <v>8.75</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="K229" s="1" t="n">
-        <v>4.550000000000001</v>
+        <v>5.35</v>
       </c>
       <c r="L229" s="1" t="n"/>
       <c r="M229" s="1" t="n">
@@ -16726,7 +16730,7 @@
         <v>-2.649999999999999</v>
       </c>
       <c r="P229" s="1" t="n">
-        <v>4.536</v>
+        <v>5.336</v>
       </c>
       <c r="Q229" s="1" t="n"/>
       <c r="R229" s="1" t="n"/>
@@ -20079,7 +20083,7 @@
         <v>-7.2</v>
       </c>
       <c r="E276" s="1" t="n">
-        <v>-2.1</v>
+        <v>-1.1</v>
       </c>
       <c r="F276" s="1" t="n">
         <v>0.4</v>
@@ -20094,10 +20098,10 @@
         <v>-7</v>
       </c>
       <c r="J276" s="1" t="n">
-        <v>-0.05000000000000027</v>
+        <v>0.9499999999999997</v>
       </c>
       <c r="K276" s="1" t="n">
-        <v>-4.15</v>
+        <v>-3.15</v>
       </c>
       <c r="L276" s="1" t="n"/>
       <c r="M276" s="1" t="n">
@@ -20110,7 +20114,7 @@
         <v>-7.2</v>
       </c>
       <c r="P276" s="1" t="n">
-        <v>-2.1</v>
+        <v>-1.1</v>
       </c>
       <c r="Q276" s="1" t="n"/>
       <c r="R276" s="1" t="n"/>
@@ -20151,7 +20155,7 @@
         <v>-7.2</v>
       </c>
       <c r="E277" s="1" t="n">
-        <v>-2.1</v>
+        <v>-1.1</v>
       </c>
       <c r="F277" s="1" t="n">
         <v>0.4</v>
@@ -20166,10 +20170,10 @@
         <v>-7</v>
       </c>
       <c r="J277" s="1" t="n">
-        <v>-0.05000000000000027</v>
+        <v>0.9499999999999997</v>
       </c>
       <c r="K277" s="1" t="n">
-        <v>-4.15</v>
+        <v>-3.15</v>
       </c>
       <c r="L277" s="1" t="n"/>
       <c r="M277" s="1" t="n">
@@ -20182,7 +20186,7 @@
         <v>-7.2</v>
       </c>
       <c r="P277" s="1" t="n">
-        <v>-2.1</v>
+        <v>-1.1</v>
       </c>
       <c r="Q277" s="1" t="n"/>
       <c r="R277" s="1" t="n"/>
@@ -20223,7 +20227,7 @@
         <v>-7.2</v>
       </c>
       <c r="E278" s="1" t="n">
-        <v>-6.25</v>
+        <v>-5.25</v>
       </c>
       <c r="F278" s="1" t="n">
         <v>0.4</v>
@@ -20238,10 +20242,10 @@
         <v>-7</v>
       </c>
       <c r="J278" s="1" t="n">
-        <v>-4.2</v>
+        <v>-3.2</v>
       </c>
       <c r="K278" s="1" t="n">
-        <v>-8.300000000000001</v>
+        <v>-7.3</v>
       </c>
       <c r="L278" s="1" t="n"/>
       <c r="M278" s="1" t="n">
@@ -20254,7 +20258,7 @@
         <v>-7.2</v>
       </c>
       <c r="P278" s="1" t="n">
-        <v>-6.25</v>
+        <v>-5.25</v>
       </c>
       <c r="Q278" s="1" t="n"/>
       <c r="R278" s="1" t="n"/>
@@ -20295,7 +20299,7 @@
         <v>-7.2</v>
       </c>
       <c r="E279" s="1" t="n">
-        <v>-6.25</v>
+        <v>-5.25</v>
       </c>
       <c r="F279" s="1" t="n">
         <v>0.4</v>
@@ -20310,10 +20314,10 @@
         <v>-7</v>
       </c>
       <c r="J279" s="1" t="n">
-        <v>-4.2</v>
+        <v>-3.2</v>
       </c>
       <c r="K279" s="1" t="n">
-        <v>-8.300000000000001</v>
+        <v>-7.3</v>
       </c>
       <c r="L279" s="1" t="n"/>
       <c r="M279" s="1" t="n">
@@ -20326,7 +20330,7 @@
         <v>-7.2</v>
       </c>
       <c r="P279" s="1" t="n">
-        <v>-6.25</v>
+        <v>-5.25</v>
       </c>
       <c r="Q279" s="1" t="n"/>
       <c r="R279" s="1" t="n"/>
@@ -20367,7 +20371,7 @@
         <v>-7.2</v>
       </c>
       <c r="E280" s="1" t="n">
-        <v>-6.25</v>
+        <v>-5.25</v>
       </c>
       <c r="F280" s="1" t="n">
         <v>0.4</v>
@@ -20382,10 +20386,10 @@
         <v>-7</v>
       </c>
       <c r="J280" s="1" t="n">
-        <v>-4.2</v>
+        <v>-3.2</v>
       </c>
       <c r="K280" s="1" t="n">
-        <v>-8.300000000000001</v>
+        <v>-7.3</v>
       </c>
       <c r="L280" s="1" t="n"/>
       <c r="M280" s="1" t="n">
@@ -20398,7 +20402,7 @@
         <v>-7.2</v>
       </c>
       <c r="P280" s="1" t="n">
-        <v>-6.25</v>
+        <v>-5.25</v>
       </c>
       <c r="Q280" s="1" t="n"/>
       <c r="R280" s="1" t="n"/>
@@ -20439,7 +20443,7 @@
         <v>-7.2</v>
       </c>
       <c r="E281" s="1" t="n">
-        <v>-6.25</v>
+        <v>-5.25</v>
       </c>
       <c r="F281" s="1" t="n">
         <v>0.4</v>
@@ -20454,10 +20458,10 @@
         <v>-7</v>
       </c>
       <c r="J281" s="1" t="n">
-        <v>-4.2</v>
+        <v>-3.2</v>
       </c>
       <c r="K281" s="1" t="n">
-        <v>-8.300000000000001</v>
+        <v>-7.3</v>
       </c>
       <c r="L281" s="1" t="n"/>
       <c r="M281" s="1" t="n">
@@ -20470,7 +20474,7 @@
         <v>-7.2</v>
       </c>
       <c r="P281" s="1" t="n">
-        <v>-6.25</v>
+        <v>-5.25</v>
       </c>
       <c r="Q281" s="1" t="n"/>
       <c r="R281" s="1" t="n"/>
@@ -20511,7 +20515,7 @@
         <v>-7.2</v>
       </c>
       <c r="E282" s="1" t="n">
-        <v>-6.25</v>
+        <v>-5.25</v>
       </c>
       <c r="F282" s="1" t="n">
         <v>0.4</v>
@@ -20526,10 +20530,10 @@
         <v>-7</v>
       </c>
       <c r="J282" s="1" t="n">
-        <v>-4.2</v>
+        <v>-3.2</v>
       </c>
       <c r="K282" s="1" t="n">
-        <v>-8.300000000000001</v>
+        <v>-7.3</v>
       </c>
       <c r="L282" s="1" t="n"/>
       <c r="M282" s="1" t="n">
@@ -20542,7 +20546,7 @@
         <v>-7.2</v>
       </c>
       <c r="P282" s="1" t="n">
-        <v>-6.25</v>
+        <v>-5.25</v>
       </c>
       <c r="Q282" s="1" t="n"/>
       <c r="R282" s="1" t="n"/>
@@ -20583,7 +20587,7 @@
         <v>-7.2</v>
       </c>
       <c r="E283" s="1" t="n">
-        <v>-6.25</v>
+        <v>-5.25</v>
       </c>
       <c r="F283" s="1" t="n">
         <v>0.4</v>
@@ -20598,10 +20602,10 @@
         <v>-7</v>
       </c>
       <c r="J283" s="1" t="n">
-        <v>-4.2</v>
+        <v>-3.2</v>
       </c>
       <c r="K283" s="1" t="n">
-        <v>-8.300000000000001</v>
+        <v>-7.3</v>
       </c>
       <c r="L283" s="1" t="n"/>
       <c r="M283" s="1" t="n">
@@ -20614,7 +20618,7 @@
         <v>-7.2</v>
       </c>
       <c r="P283" s="1" t="n">
-        <v>-6.25</v>
+        <v>-5.25</v>
       </c>
       <c r="Q283" s="1" t="n"/>
       <c r="R283" s="1" t="n"/>
@@ -20655,7 +20659,7 @@
         <v>-7.2</v>
       </c>
       <c r="E284" s="1" t="n">
-        <v>-6.25</v>
+        <v>-5.25</v>
       </c>
       <c r="F284" s="1" t="n">
         <v>0.4</v>
@@ -20670,10 +20674,10 @@
         <v>-7</v>
       </c>
       <c r="J284" s="1" t="n">
-        <v>-4.2</v>
+        <v>-3.2</v>
       </c>
       <c r="K284" s="1" t="n">
-        <v>-8.300000000000001</v>
+        <v>-7.3</v>
       </c>
       <c r="L284" s="1" t="n"/>
       <c r="M284" s="1" t="n">
@@ -20686,7 +20690,7 @@
         <v>-7.2</v>
       </c>
       <c r="P284" s="1" t="n">
-        <v>-6.25</v>
+        <v>-5.25</v>
       </c>
       <c r="Q284" s="1" t="n"/>
       <c r="R284" s="1" t="n"/>
@@ -20727,7 +20731,7 @@
         <v>-7.2</v>
       </c>
       <c r="E285" s="1" t="n">
-        <v>-6.25</v>
+        <v>-5.25</v>
       </c>
       <c r="F285" s="1" t="n">
         <v>0.4</v>
@@ -20742,10 +20746,10 @@
         <v>-7</v>
       </c>
       <c r="J285" s="1" t="n">
-        <v>-4.2</v>
+        <v>-3.2</v>
       </c>
       <c r="K285" s="1" t="n">
-        <v>-8.300000000000001</v>
+        <v>-7.3</v>
       </c>
       <c r="L285" s="1" t="n"/>
       <c r="M285" s="1" t="n">
@@ -20758,7 +20762,7 @@
         <v>-7.2</v>
       </c>
       <c r="P285" s="1" t="n">
-        <v>-6.25</v>
+        <v>-5.25</v>
       </c>
       <c r="Q285" s="1" t="n"/>
       <c r="R285" s="1" t="n"/>
@@ -20799,7 +20803,7 @@
         <v>-7.2</v>
       </c>
       <c r="E286" s="1" t="n">
-        <v>-6.25</v>
+        <v>-5.25</v>
       </c>
       <c r="F286" s="1" t="n">
         <v>0.4</v>
@@ -20814,10 +20818,10 @@
         <v>-7</v>
       </c>
       <c r="J286" s="1" t="n">
-        <v>-4.2</v>
+        <v>-3.2</v>
       </c>
       <c r="K286" s="1" t="n">
-        <v>-8.300000000000001</v>
+        <v>-7.3</v>
       </c>
       <c r="L286" s="1" t="n"/>
       <c r="M286" s="1" t="n">
@@ -20830,7 +20834,7 @@
         <v>-7.2</v>
       </c>
       <c r="P286" s="1" t="n">
-        <v>-6.25</v>
+        <v>-5.25</v>
       </c>
       <c r="Q286" s="1" t="n"/>
       <c r="R286" s="1" t="n"/>
@@ -20871,7 +20875,7 @@
         <v>-7.2</v>
       </c>
       <c r="E287" s="1" t="n">
-        <v>-6.25</v>
+        <v>-5.25</v>
       </c>
       <c r="F287" s="1" t="n">
         <v>0.4</v>
@@ -20886,10 +20890,10 @@
         <v>-7</v>
       </c>
       <c r="J287" s="1" t="n">
-        <v>-4.2</v>
+        <v>-3.2</v>
       </c>
       <c r="K287" s="1" t="n">
-        <v>-8.300000000000001</v>
+        <v>-7.3</v>
       </c>
       <c r="L287" s="1" t="n"/>
       <c r="M287" s="1" t="n">
@@ -20902,7 +20906,7 @@
         <v>-7.2</v>
       </c>
       <c r="P287" s="1" t="n">
-        <v>-6.25</v>
+        <v>-5.25</v>
       </c>
       <c r="Q287" s="1" t="n"/>
       <c r="R287" s="1" t="n"/>
@@ -20943,7 +20947,7 @@
         <v>-7.2</v>
       </c>
       <c r="E288" s="1" t="n">
-        <v>-6.25</v>
+        <v>-5.25</v>
       </c>
       <c r="F288" s="1" t="n">
         <v>0.4</v>
@@ -20958,10 +20962,10 @@
         <v>-7</v>
       </c>
       <c r="J288" s="1" t="n">
-        <v>-4.2</v>
+        <v>-3.2</v>
       </c>
       <c r="K288" s="1" t="n">
-        <v>-8.300000000000001</v>
+        <v>-7.3</v>
       </c>
       <c r="L288" s="1" t="n"/>
       <c r="M288" s="1" t="n">
@@ -20974,7 +20978,7 @@
         <v>-7.2</v>
       </c>
       <c r="P288" s="1" t="n">
-        <v>-6.25</v>
+        <v>-5.25</v>
       </c>
       <c r="Q288" s="1" t="n"/>
       <c r="R288" s="1" t="n"/>
@@ -21015,7 +21019,7 @@
         <v>-7.2</v>
       </c>
       <c r="E289" s="1" t="n">
-        <v>-6.25</v>
+        <v>-5.25</v>
       </c>
       <c r="F289" s="1" t="n">
         <v>0.4</v>
@@ -21030,10 +21034,10 @@
         <v>-7</v>
       </c>
       <c r="J289" s="1" t="n">
-        <v>-4.2</v>
+        <v>-3.2</v>
       </c>
       <c r="K289" s="1" t="n">
-        <v>-8.300000000000001</v>
+        <v>-7.3</v>
       </c>
       <c r="L289" s="1" t="n"/>
       <c r="M289" s="1" t="n">
@@ -21046,7 +21050,7 @@
         <v>-7.2</v>
       </c>
       <c r="P289" s="1" t="n">
-        <v>-6.25</v>
+        <v>-5.25</v>
       </c>
       <c r="Q289" s="1" t="n"/>
       <c r="R289" s="1" t="n"/>
@@ -21087,7 +21091,7 @@
         <v>-7.2</v>
       </c>
       <c r="E290" s="1" t="n">
-        <v>-6.25</v>
+        <v>-5.25</v>
       </c>
       <c r="F290" s="1" t="n">
         <v>0.4</v>
@@ -21102,10 +21106,10 @@
         <v>-7</v>
       </c>
       <c r="J290" s="1" t="n">
-        <v>-4.2</v>
+        <v>-3.2</v>
       </c>
       <c r="K290" s="1" t="n">
-        <v>-8.300000000000001</v>
+        <v>-7.3</v>
       </c>
       <c r="L290" s="1" t="n"/>
       <c r="M290" s="1" t="n">
@@ -21118,7 +21122,7 @@
         <v>-7.2</v>
       </c>
       <c r="P290" s="1" t="n">
-        <v>-6.25</v>
+        <v>-5.25</v>
       </c>
       <c r="Q290" s="1" t="n"/>
       <c r="R290" s="1" t="n"/>
@@ -21159,7 +21163,7 @@
         <v>-7.2</v>
       </c>
       <c r="E291" s="1" t="n">
-        <v>-6.25</v>
+        <v>-5.25</v>
       </c>
       <c r="F291" s="1" t="n">
         <v>0.4</v>
@@ -21174,10 +21178,10 @@
         <v>-7</v>
       </c>
       <c r="J291" s="1" t="n">
-        <v>-4.2</v>
+        <v>-3.2</v>
       </c>
       <c r="K291" s="1" t="n">
-        <v>-8.300000000000001</v>
+        <v>-7.3</v>
       </c>
       <c r="L291" s="1" t="n"/>
       <c r="M291" s="1" t="n">
@@ -21190,7 +21194,7 @@
         <v>-7.2</v>
       </c>
       <c r="P291" s="1" t="n">
-        <v>-6.25</v>
+        <v>-5.25</v>
       </c>
       <c r="Q291" s="1" t="n"/>
       <c r="R291" s="1" t="n"/>
@@ -21231,7 +21235,7 @@
         <v>-7.2</v>
       </c>
       <c r="E292" s="1" t="n">
-        <v>-6.25</v>
+        <v>-5.25</v>
       </c>
       <c r="F292" s="1" t="n">
         <v>0.4</v>
@@ -21246,10 +21250,10 @@
         <v>-7</v>
       </c>
       <c r="J292" s="1" t="n">
-        <v>-4.2</v>
+        <v>-3.2</v>
       </c>
       <c r="K292" s="1" t="n">
-        <v>-8.300000000000001</v>
+        <v>-7.3</v>
       </c>
       <c r="L292" s="1" t="n"/>
       <c r="M292" s="1" t="n">
@@ -21262,7 +21266,7 @@
         <v>-7.2</v>
       </c>
       <c r="P292" s="1" t="n">
-        <v>-6.25</v>
+        <v>-5.25</v>
       </c>
       <c r="Q292" s="1" t="n"/>
       <c r="R292" s="1" t="n"/>
@@ -21303,7 +21307,7 @@
         <v>-7.2</v>
       </c>
       <c r="E293" s="1" t="n">
-        <v>-6.25</v>
+        <v>-5.25</v>
       </c>
       <c r="F293" s="1" t="n">
         <v>0.4</v>
@@ -21318,10 +21322,10 @@
         <v>-7</v>
       </c>
       <c r="J293" s="1" t="n">
-        <v>-4.2</v>
+        <v>-3.2</v>
       </c>
       <c r="K293" s="1" t="n">
-        <v>-8.300000000000001</v>
+        <v>-7.3</v>
       </c>
       <c r="L293" s="1" t="n"/>
       <c r="M293" s="1" t="n">
@@ -21334,7 +21338,7 @@
         <v>-7.2</v>
       </c>
       <c r="P293" s="1" t="n">
-        <v>-6.25</v>
+        <v>-5.25</v>
       </c>
       <c r="Q293" s="1" t="n"/>
       <c r="R293" s="1" t="n"/>
@@ -21375,7 +21379,7 @@
         <v>-7.2</v>
       </c>
       <c r="E294" s="1" t="n">
-        <v>-6.25</v>
+        <v>-5.25</v>
       </c>
       <c r="F294" s="1" t="n">
         <v>0.4</v>
@@ -21390,10 +21394,10 @@
         <v>-7</v>
       </c>
       <c r="J294" s="1" t="n">
-        <v>-4.2</v>
+        <v>-3.2</v>
       </c>
       <c r="K294" s="1" t="n">
-        <v>-8.300000000000001</v>
+        <v>-7.3</v>
       </c>
       <c r="L294" s="1" t="n"/>
       <c r="M294" s="1" t="n">
@@ -21406,7 +21410,7 @@
         <v>-7.2</v>
       </c>
       <c r="P294" s="1" t="n">
-        <v>-6.25</v>
+        <v>-5.25</v>
       </c>
       <c r="Q294" s="1" t="n"/>
       <c r="R294" s="1" t="n"/>
@@ -21447,7 +21451,7 @@
         <v>-7.2</v>
       </c>
       <c r="E295" s="1" t="n">
-        <v>-6.25</v>
+        <v>-5.25</v>
       </c>
       <c r="F295" s="1" t="n">
         <v>0.4</v>
@@ -21462,10 +21466,10 @@
         <v>-7</v>
       </c>
       <c r="J295" s="1" t="n">
-        <v>-4.2</v>
+        <v>-3.2</v>
       </c>
       <c r="K295" s="1" t="n">
-        <v>-8.300000000000001</v>
+        <v>-7.3</v>
       </c>
       <c r="L295" s="1" t="n"/>
       <c r="M295" s="1" t="n">
@@ -21478,7 +21482,7 @@
         <v>-7.2</v>
       </c>
       <c r="P295" s="1" t="n">
-        <v>-6.25</v>
+        <v>-5.25</v>
       </c>
       <c r="Q295" s="1" t="n"/>
       <c r="R295" s="1" t="n"/>
@@ -21519,7 +21523,7 @@
         <v>-7.2</v>
       </c>
       <c r="E296" s="1" t="n">
-        <v>-6.25</v>
+        <v>-5.25</v>
       </c>
       <c r="F296" s="1" t="n">
         <v>0.4</v>
@@ -21534,10 +21538,10 @@
         <v>-7</v>
       </c>
       <c r="J296" s="1" t="n">
-        <v>-4.2</v>
+        <v>-3.2</v>
       </c>
       <c r="K296" s="1" t="n">
-        <v>-8.300000000000001</v>
+        <v>-7.3</v>
       </c>
       <c r="L296" s="1" t="n"/>
       <c r="M296" s="1" t="n">
@@ -21550,7 +21554,7 @@
         <v>-7.2</v>
       </c>
       <c r="P296" s="1" t="n">
-        <v>-6.25</v>
+        <v>-5.25</v>
       </c>
       <c r="Q296" s="1" t="n"/>
       <c r="R296" s="1" t="n"/>
@@ -21591,7 +21595,7 @@
         <v>-7.2</v>
       </c>
       <c r="E297" s="1" t="n">
-        <v>-6.25</v>
+        <v>-5.25</v>
       </c>
       <c r="F297" s="1" t="n">
         <v>0.4</v>
@@ -21606,10 +21610,10 @@
         <v>-7</v>
       </c>
       <c r="J297" s="1" t="n">
-        <v>-4.2</v>
+        <v>-3.2</v>
       </c>
       <c r="K297" s="1" t="n">
-        <v>-8.300000000000001</v>
+        <v>-7.3</v>
       </c>
       <c r="L297" s="1" t="n"/>
       <c r="M297" s="1" t="n">
@@ -21622,7 +21626,7 @@
         <v>-7.2</v>
       </c>
       <c r="P297" s="1" t="n">
-        <v>-6.25</v>
+        <v>-5.25</v>
       </c>
       <c r="Q297" s="1" t="n"/>
       <c r="R297" s="1" t="n"/>
@@ -21663,7 +21667,7 @@
         <v>-7.2</v>
       </c>
       <c r="E298" s="1" t="n">
-        <v>-6.25</v>
+        <v>-5.25</v>
       </c>
       <c r="F298" s="1" t="n">
         <v>0.4</v>
@@ -21678,10 +21682,10 @@
         <v>-7</v>
       </c>
       <c r="J298" s="1" t="n">
-        <v>-4.2</v>
+        <v>-3.2</v>
       </c>
       <c r="K298" s="1" t="n">
-        <v>-8.300000000000001</v>
+        <v>-7.3</v>
       </c>
       <c r="L298" s="1" t="n"/>
       <c r="M298" s="1" t="n">
@@ -21694,7 +21698,7 @@
         <v>-7.2</v>
       </c>
       <c r="P298" s="1" t="n">
-        <v>-6.25</v>
+        <v>-5.25</v>
       </c>
       <c r="Q298" s="1" t="n"/>
       <c r="R298" s="1" t="n"/>
@@ -21735,7 +21739,7 @@
         <v>-7.2</v>
       </c>
       <c r="E299" s="1" t="n">
-        <v>-6.25</v>
+        <v>-5.25</v>
       </c>
       <c r="F299" s="1" t="n">
         <v>0.4</v>
@@ -21750,10 +21754,10 @@
         <v>-7</v>
       </c>
       <c r="J299" s="1" t="n">
-        <v>-4.2</v>
+        <v>-3.2</v>
       </c>
       <c r="K299" s="1" t="n">
-        <v>-8.300000000000001</v>
+        <v>-7.3</v>
       </c>
       <c r="L299" s="1" t="n"/>
       <c r="M299" s="1" t="n">
@@ -21766,7 +21770,7 @@
         <v>-7.2</v>
       </c>
       <c r="P299" s="1" t="n">
-        <v>-6.25</v>
+        <v>-5.25</v>
       </c>
       <c r="Q299" s="1" t="n"/>
       <c r="R299" s="1" t="n"/>
@@ -24180,10 +24184,10 @@
         <v>99</v>
       </c>
       <c r="D333" s="1" t="n">
-        <v>-9</v>
+        <v>-9.140000000000001</v>
       </c>
       <c r="E333" s="1" t="n">
-        <v>0</v>
+        <v>-6.6</v>
       </c>
       <c r="F333" s="1" t="n">
         <v>0.4</v>
@@ -24192,16 +24196,16 @@
         <v>8.199999999999999</v>
       </c>
       <c r="H333" s="1" t="n">
-        <v>-9.199999999999999</v>
+        <v>-9.34</v>
       </c>
       <c r="I333" s="1" t="n">
-        <v>-8.800000000000001</v>
+        <v>-8.940000000000001</v>
       </c>
       <c r="J333" s="1" t="n">
-        <v>4.1</v>
+        <v>-2.5</v>
       </c>
       <c r="K333" s="1" t="n">
-        <v>-4.1</v>
+        <v>-10.7</v>
       </c>
       <c r="L333" s="1" t="n"/>
       <c r="M333" s="1" t="n">
@@ -24211,10 +24215,10 @@
         <v>0</v>
       </c>
       <c r="O333" s="1" t="n">
-        <v>-9</v>
+        <v>-9.140000000000001</v>
       </c>
       <c r="P333" s="1" t="n">
-        <v>0</v>
+        <v>-6.6</v>
       </c>
       <c r="Q333" s="1" t="n"/>
       <c r="R333" s="1" t="n"/>
@@ -25695,7 +25699,7 @@
         <v>-7.65</v>
       </c>
       <c r="E354" s="1" t="n">
-        <v>-4.5</v>
+        <v>-3.5</v>
       </c>
       <c r="F354" s="1" t="n">
         <v>0.4</v>
@@ -25710,10 +25714,10 @@
         <v>-7.45</v>
       </c>
       <c r="J354" s="1" t="n">
-        <v>-0.04999999999999982</v>
+        <v>0.9500000000000002</v>
       </c>
       <c r="K354" s="1" t="n">
-        <v>-8.949999999999999</v>
+        <v>-7.95</v>
       </c>
       <c r="L354" s="1" t="n"/>
       <c r="M354" s="1" t="n">
@@ -25726,7 +25730,7 @@
         <v>-7.65</v>
       </c>
       <c r="P354" s="1" t="n">
-        <v>-4.5</v>
+        <v>-3.5</v>
       </c>
       <c r="Q354" s="1" t="n"/>
       <c r="R354" s="1" t="n"/>
@@ -30729,7 +30733,7 @@
         <v>-6.9</v>
       </c>
       <c r="E424" s="1" t="n">
-        <v>2.15</v>
+        <v>3.15</v>
       </c>
       <c r="F424" s="1" t="n">
         <v>0.5</v>
@@ -30744,10 +30748,10 @@
         <v>-6.65</v>
       </c>
       <c r="J424" s="1" t="n">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="K424" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L424" s="1" t="n"/>
       <c r="M424" s="1" t="n">
@@ -30760,7 +30764,7 @@
         <v>-3.154</v>
       </c>
       <c r="P424" s="1" t="n">
-        <v>4.041</v>
+        <v>5.041</v>
       </c>
       <c r="Q424" s="1" t="n"/>
       <c r="R424" s="1" t="n"/>
@@ -30801,7 +30805,7 @@
         <v>-6.9</v>
       </c>
       <c r="E425" s="1" t="n">
-        <v>2.15</v>
+        <v>3.15</v>
       </c>
       <c r="F425" s="1" t="n">
         <v>0.5</v>
@@ -30816,10 +30820,10 @@
         <v>-6.65</v>
       </c>
       <c r="J425" s="1" t="n">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="K425" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L425" s="1" t="n"/>
       <c r="M425" s="1" t="n">
@@ -30832,7 +30836,7 @@
         <v>-3.154</v>
       </c>
       <c r="P425" s="1" t="n">
-        <v>4.041</v>
+        <v>5.041</v>
       </c>
       <c r="Q425" s="1" t="n"/>
       <c r="R425" s="1" t="n"/>
@@ -32094,28 +32098,28 @@
         <v>132</v>
       </c>
       <c r="D443" s="1" t="n">
-        <v>0</v>
+        <v>-9.09</v>
       </c>
       <c r="E443" s="1" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="F443" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G443" s="1" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H443" s="1" t="n">
-        <v>0</v>
+        <v>-9.34</v>
       </c>
       <c r="I443" s="1" t="n">
-        <v>0</v>
+        <v>-8.84</v>
       </c>
       <c r="J443" s="1" t="n">
-        <v>0</v>
+        <v>5.850000000000001</v>
       </c>
       <c r="K443" s="1" t="n">
-        <v>0</v>
+        <v>-2.45</v>
       </c>
       <c r="L443" s="1" t="n"/>
       <c r="M443" s="1" t="n">
@@ -32125,14 +32129,16 @@
         <v>0</v>
       </c>
       <c r="O443" s="1" t="n">
-        <v>0</v>
+        <v>-9.09</v>
       </c>
       <c r="P443" s="1" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="Q443" s="1" t="n"/>
       <c r="R443" s="1" t="n"/>
-      <c r="S443" s="1" t="s"/>
+      <c r="S443" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="T443" s="1" t="n">
         <v>1</v>
       </c>
@@ -32164,28 +32170,28 @@
         <v>132</v>
       </c>
       <c r="D444" s="1" t="n">
-        <v>0</v>
+        <v>-9.09</v>
       </c>
       <c r="E444" s="1" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="F444" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G444" s="1" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H444" s="1" t="n">
-        <v>0</v>
+        <v>-9.34</v>
       </c>
       <c r="I444" s="1" t="n">
-        <v>0</v>
+        <v>-8.84</v>
       </c>
       <c r="J444" s="1" t="n">
-        <v>0</v>
+        <v>5.850000000000001</v>
       </c>
       <c r="K444" s="1" t="n">
-        <v>0</v>
+        <v>-2.45</v>
       </c>
       <c r="L444" s="1" t="n"/>
       <c r="M444" s="1" t="n">
@@ -32195,14 +32201,16 @@
         <v>0</v>
       </c>
       <c r="O444" s="1" t="n">
-        <v>0</v>
+        <v>-9.09</v>
       </c>
       <c r="P444" s="1" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="Q444" s="1" t="n"/>
       <c r="R444" s="1" t="n"/>
-      <c r="S444" s="1" t="s"/>
+      <c r="S444" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="T444" s="1" t="n">
         <v>1</v>
       </c>
@@ -32234,28 +32242,28 @@
         <v>132</v>
       </c>
       <c r="D445" s="1" t="n">
-        <v>0</v>
+        <v>-9.09</v>
       </c>
       <c r="E445" s="1" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="F445" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G445" s="1" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H445" s="1" t="n">
-        <v>0</v>
+        <v>-9.34</v>
       </c>
       <c r="I445" s="1" t="n">
-        <v>0</v>
+        <v>-8.84</v>
       </c>
       <c r="J445" s="1" t="n">
-        <v>0</v>
+        <v>5.850000000000001</v>
       </c>
       <c r="K445" s="1" t="n">
-        <v>0</v>
+        <v>-2.45</v>
       </c>
       <c r="L445" s="1" t="n"/>
       <c r="M445" s="1" t="n">
@@ -32265,14 +32273,16 @@
         <v>0</v>
       </c>
       <c r="O445" s="1" t="n">
-        <v>0</v>
+        <v>-9.09</v>
       </c>
       <c r="P445" s="1" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="Q445" s="1" t="n"/>
       <c r="R445" s="1" t="n"/>
-      <c r="S445" s="1" t="s"/>
+      <c r="S445" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="T445" s="1" t="n">
         <v>1</v>
       </c>
@@ -37416,10 +37426,10 @@
         <v>141</v>
       </c>
       <c r="D517" s="1" t="n">
-        <v>0.312</v>
+        <v>0.3</v>
       </c>
       <c r="E517" s="1" t="n">
-        <v>-7.925</v>
+        <v>-7.9</v>
       </c>
       <c r="F517" s="1" t="n">
         <v>8.6</v>
@@ -37428,16 +37438,16 @@
         <v>1.15</v>
       </c>
       <c r="H517" s="1" t="n">
-        <v>-3.988</v>
+        <v>-4</v>
       </c>
       <c r="I517" s="1" t="n">
-        <v>4.612</v>
+        <v>4.6</v>
       </c>
       <c r="J517" s="1" t="n">
-        <v>-7.35</v>
+        <v>-7.325</v>
       </c>
       <c r="K517" s="1" t="n">
-        <v>-8.5</v>
+        <v>-8.475</v>
       </c>
       <c r="L517" s="1" t="n"/>
       <c r="M517" s="1" t="n">
@@ -37447,10 +37457,10 @@
         <v>0</v>
       </c>
       <c r="O517" s="1" t="n">
-        <v>0.312</v>
+        <v>0.3</v>
       </c>
       <c r="P517" s="1" t="n">
-        <v>-7.925</v>
+        <v>-7.9</v>
       </c>
       <c r="Q517" s="1" t="n"/>
       <c r="R517" s="1" t="n"/>
@@ -37491,7 +37501,7 @@
         <v>-7.95</v>
       </c>
       <c r="E518" s="1" t="n">
-        <v>7.1</v>
+        <v>8.1</v>
       </c>
       <c r="F518" s="1" t="n">
         <v>0.7</v>
@@ -37506,10 +37516,10 @@
         <v>-7.600000000000001</v>
       </c>
       <c r="J518" s="1" t="n">
-        <v>10.05</v>
+        <v>11.05</v>
       </c>
       <c r="K518" s="1" t="n">
-        <v>4.149999999999999</v>
+        <v>5.149999999999999</v>
       </c>
       <c r="L518" s="1" t="n"/>
       <c r="M518" s="1" t="n">
@@ -37522,7 +37532,7 @@
         <v>-7.95</v>
       </c>
       <c r="P518" s="1" t="n">
-        <v>7.1</v>
+        <v>8.1</v>
       </c>
       <c r="Q518" s="1" t="n"/>
       <c r="R518" s="1" t="n"/>
